--- a/MK_Hotkeys_Project_Design.xlsx
+++ b/MK_Hotkeys_Project_Design.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19415"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_1FF80C1433C7A0836B02CE998F7F4C1B590B9E52" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{AEE17DDF-887E-4963-A05F-99AE4EAB5EFD}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MK_Hotkeys\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Positions" sheetId="1" r:id="rId1"/>
+    <sheet name="Positions" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>命名</t>
   </si>
@@ -23,103 +27,135 @@
     <t>说明</t>
   </si>
   <si>
-    <t>最左上位置</t>
-  </si>
-  <si>
-    <t>最右下位置</t>
-  </si>
-  <si>
     <t>行列数</t>
   </si>
   <si>
+    <t>main_1</t>
+  </si>
+  <si>
+    <t>右上</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>main_2</t>
+  </si>
+  <si>
+    <t>第一行</t>
+  </si>
+  <si>
+    <t>main_3</t>
+  </si>
+  <si>
+    <t>第二行</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>main_4</t>
+  </si>
+  <si>
+    <t>传闻</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>sys_1</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>sys_2</t>
+  </si>
+  <si>
+    <t>速度（包括调整）</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>sl_1</t>
+  </si>
+  <si>
+    <t>条目</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>sl_2</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>主界面</t>
-  </si>
-  <si>
-    <t>main_1</t>
-  </si>
-  <si>
-    <t>右上</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>main_2</t>
-  </si>
-  <si>
-    <t>第一行</t>
-  </si>
-  <si>
-    <t>main_3</t>
-  </si>
-  <si>
-    <t>第二行</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>main_4</t>
-  </si>
-  <si>
-    <t>传闻</t>
-  </si>
-  <si>
-    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统菜单</t>
-  </si>
-  <si>
-    <t>sys_1</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>sys_2</t>
-  </si>
-  <si>
-    <t>速度（包括调整）</t>
-  </si>
-  <si>
-    <t>1,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>存取</t>
-  </si>
-  <si>
-    <t>sl_1</t>
-  </si>
-  <si>
-    <t>条目</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>sl_2</t>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -143,15 +179,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,297 +497,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A10" sqref="A10:A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="17.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="1" customWidth="1"/>
+    <col min="11" max="11" width="52.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1">
+        <v>684</v>
+      </c>
+      <c r="E2" s="1">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1">
+        <v>773</v>
+      </c>
+      <c r="G2" s="1">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2</f>
+        <v>684,33,773,32,1,3</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>B2&amp;"="&amp;I2</f>
+        <v>main_1=684,33,773,32,1,3</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>"IniRead, "&amp;B2&amp;", .\config.ini, Position, "&amp;B2</f>
+        <v>IniRead, main_1, .\config.ini, Position, main_1</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:11">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>666</v>
+      </c>
+      <c r="E3" s="1">
+        <v>281</v>
+      </c>
+      <c r="F3" s="1">
+        <v>769</v>
+      </c>
+      <c r="G3" s="1">
+        <v>278</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>684</v>
-      </c>
-      <c r="E2">
-        <v>773</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I3" s="1" t="str">
+        <f t="shared" ref="I3:I9" si="0">D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3</f>
+        <v>666,281,769,278,1,3</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J9" si="1">B3&amp;"="&amp;I3</f>
+        <v>main_2=666,281,769,278,1,3</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K9" si="2">"IniRead, "&amp;B3&amp;", .\config.ini, Position, "&amp;B3</f>
+        <v>IniRead, main_2, .\config.ini, Position, main_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>655</v>
+      </c>
+      <c r="E4" s="1">
+        <v>318</v>
+      </c>
+      <c r="F4" s="1">
+        <v>782</v>
+      </c>
+      <c r="G4" s="1">
+        <v>321</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>655,318,782,321,1,6</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>main_3=655,318,782,321,1,6</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IniRead, main_3, .\config.ini, Position, main_3</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1">
+    <row r="5" spans="1:11">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>764</v>
+      </c>
+      <c r="E5" s="1">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1">
+        <v>764</v>
+      </c>
+      <c r="G5" s="1">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>764,58,764,58,1,1</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>main_4=764,58,764,58,1,1</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IniRead, main_4, .\config.ini, Position, main_4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>400</v>
+      </c>
+      <c r="E6" s="1">
+        <v>373</v>
+      </c>
+      <c r="F6" s="1">
+        <v>400</v>
+      </c>
+      <c r="G6" s="1">
+        <v>478</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>400,373,400,478,4,1</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>sys_1=400,373,400,478,4,1</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IniRead, sys_1, .\config.ini, Position, sys_1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>378</v>
+      </c>
+      <c r="E7" s="1">
+        <v>288</v>
+      </c>
+      <c r="F7" s="1">
+        <v>489</v>
+      </c>
+      <c r="G7" s="1">
+        <v>287</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>378,288,489,287,1,7</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>sys_2=378,288,489,287,1,7</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IniRead, sys_2, .\config.ini, Position, sys_2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>396</v>
+      </c>
+      <c r="E8" s="1">
+        <v>176</v>
+      </c>
+      <c r="F8" s="1">
+        <v>398</v>
+      </c>
+      <c r="G8" s="1">
+        <v>415</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>396,176,398,415,11,1</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>sl_1=396,176,398,415,11,1</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IniRead, sl_1, .\config.ini, Position, sl_1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>666</v>
-      </c>
-      <c r="E4">
-        <v>769</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2">
-        <v>281</v>
-      </c>
-      <c r="E5">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>655</v>
-      </c>
-      <c r="E6">
-        <v>782</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7">
-        <v>318</v>
-      </c>
-      <c r="E7">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>764</v>
-      </c>
-      <c r="E8">
-        <v>764</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9">
-        <v>58</v>
-      </c>
-      <c r="E9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>400</v>
-      </c>
-      <c r="E10">
-        <v>400</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11">
-        <v>373</v>
-      </c>
-      <c r="E11">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>378</v>
-      </c>
-      <c r="E12">
-        <v>489</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="9" spans="1:11">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13">
-        <v>288</v>
-      </c>
-      <c r="E13">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D9" s="1">
+        <v>369</v>
+      </c>
+      <c r="E9" s="1">
+        <v>465</v>
+      </c>
+      <c r="F9" s="1">
+        <v>432</v>
+      </c>
+      <c r="G9" s="1">
+        <v>466</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>396</v>
-      </c>
-      <c r="E14">
-        <v>398</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15">
-        <v>176</v>
-      </c>
-      <c r="E15">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>369</v>
-      </c>
-      <c r="E16">
-        <v>432</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17">
-        <v>465</v>
-      </c>
-      <c r="E17">
-        <v>466</v>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>369,465,432,466,1,2</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>sl_2=369,465,432,466,1,2</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IniRead, sl_2, .\config.ini, Position, sl_2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MK_Hotkeys_Project_Design.xlsx
+++ b/MK_Hotkeys_Project_Design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>命名</t>
   </si>
@@ -135,7 +135,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码生成</t>
+    <t>代码生成2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码生成1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,9 +502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -511,10 +517,11 @@
     <col min="9" max="9" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" style="1" customWidth="1"/>
     <col min="11" max="11" width="52.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,10 +550,13 @@
         <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -583,8 +593,12 @@
         <f>"IniRead, "&amp;B2&amp;", .\config.ini, Position, "&amp;B2</f>
         <v>IniRead, main_1, .\config.ini, Position, main_1</v>
       </c>
+      <c r="L2" s="1" t="str">
+        <f>"abs_"&amp;B2&amp;" := find_pos("&amp;B2&amp;")"</f>
+        <v>abs_main_1 := find_pos(main_1)</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -618,8 +632,12 @@
         <f t="shared" ref="K3:K9" si="2">"IniRead, "&amp;B3&amp;", .\config.ini, Position, "&amp;B3</f>
         <v>IniRead, main_2, .\config.ini, Position, main_2</v>
       </c>
+      <c r="L3" s="1" t="str">
+        <f>"abs_"&amp;B3&amp;" := find_pos("&amp;B3&amp;")"</f>
+        <v>abs_main_2 := find_pos(main_2)</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -653,8 +671,12 @@
         <f t="shared" si="2"/>
         <v>IniRead, main_3, .\config.ini, Position, main_3</v>
       </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" ref="L4:L9" si="3">"abs_"&amp;B4&amp;" := find_pos("&amp;B4&amp;")"</f>
+        <v>abs_main_3 := find_pos(main_3)</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -688,8 +710,12 @@
         <f t="shared" si="2"/>
         <v>IniRead, main_4, .\config.ini, Position, main_4</v>
       </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>abs_main_4 := find_pos(main_4)</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -726,8 +752,12 @@
         <f t="shared" si="2"/>
         <v>IniRead, sys_1, .\config.ini, Position, sys_1</v>
       </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>abs_sys_1 := find_pos(sys_1)</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -761,8 +791,12 @@
         <f t="shared" si="2"/>
         <v>IniRead, sys_2, .\config.ini, Position, sys_2</v>
       </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>abs_sys_2 := find_pos(sys_2)</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -799,8 +833,12 @@
         <f t="shared" si="2"/>
         <v>IniRead, sl_1, .\config.ini, Position, sl_1</v>
       </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>abs_sl_1 := find_pos(sl_1)</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -833,10 +871,15 @@
       <c r="K9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>IniRead, sl_2, .\config.ini, Position, sl_2</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>abs_sl_2 := find_pos(sl_2)</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MK_Hotkeys_Project_Design.xlsx
+++ b/MK_Hotkeys_Project_Design.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t xml:space="preserve">命名</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t xml:space="preserve">ini_gen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">script_gen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">script_gen2</t>
   </si>
   <si>
     <t xml:space="preserve">经营界面</t>
@@ -393,13 +399,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -422,7 +432,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="I2:I26 D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="K2:K26 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -810,10 +820,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I2:I26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -825,7 +835,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="59.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="54.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,16 +865,22 @@
       <c r="I1" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>683</v>
@@ -882,13 +900,21 @@
         <f aca="false">D2&amp;"="&amp;G2&amp;","&amp;H2</f>
         <v>op_history=0.8538,0.0533</v>
       </c>
+      <c r="J2" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D2&amp;", .\config.ini, Proportions, "&amp;D2</f>
+        <v>IniRead, op_history, .\config.ini, Proportions, op_history</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f aca="false">"abs_"&amp;D2&amp;" := find_pos("&amp;D2&amp;")"</f>
+        <v>abs_op_history := find_pos(op_history)</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>733</v>
@@ -908,13 +934,21 @@
         <f aca="false">D3&amp;"="&amp;G3&amp;","&amp;H3</f>
         <v>op_analyze=0.9163,0.0533</v>
       </c>
+      <c r="J3" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D3&amp;", .\config.ini, Proportions, "&amp;D3</f>
+        <v>IniRead, op_analyze, .\config.ini, Proportions, op_analyze</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f aca="false">"abs_"&amp;D3&amp;" := find_pos("&amp;D3&amp;")"</f>
+        <v>abs_op_analyze := find_pos(op_analyze)</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>772</v>
@@ -934,13 +968,21 @@
         <f aca="false">D4&amp;"="&amp;G4&amp;","&amp;H4</f>
         <v>op_system=0.965,0.0533</v>
       </c>
+      <c r="J4" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D4&amp;", .\config.ini, Proportions, "&amp;D4</f>
+        <v>IniRead, op_system, .\config.ini, Proportions, op_system</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f aca="false">"abs_"&amp;D4&amp;" := find_pos("&amp;D4&amp;")"</f>
+        <v>abs_op_system := find_pos(op_system)</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>667</v>
@@ -960,13 +1002,21 @@
         <f aca="false">D5&amp;"="&amp;G5&amp;","&amp;H5</f>
         <v>op_characters=0.8338,0.4667</v>
       </c>
+      <c r="J5" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D5&amp;", .\config.ini, Proportions, "&amp;D5</f>
+        <v>IniRead, op_characters, .\config.ini, Proportions, op_characters</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f aca="false">"abs_"&amp;D5&amp;" := find_pos("&amp;D5&amp;")"</f>
+        <v>abs_op_characters := find_pos(op_characters)</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>719</v>
@@ -986,13 +1036,21 @@
         <f aca="false">D6&amp;"="&amp;G6&amp;","&amp;H6</f>
         <v>op_buildings=0.8988,0.4667</v>
       </c>
+      <c r="J6" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D6&amp;", .\config.ini, Proportions, "&amp;D6</f>
+        <v>IniRead, op_buildings, .\config.ini, Proportions, op_buildings</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f aca="false">"abs_"&amp;D6&amp;" := find_pos("&amp;D6&amp;")"</f>
+        <v>abs_op_buildings := find_pos(op_buildings)</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>766</v>
@@ -1012,13 +1070,21 @@
         <f aca="false">D7&amp;"="&amp;G7&amp;","&amp;H7</f>
         <v>op_market=0.9575,0.4667</v>
       </c>
+      <c r="J7" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D7&amp;", .\config.ini, Proportions, "&amp;D7</f>
+        <v>IniRead, op_market, .\config.ini, Proportions, op_market</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f aca="false">"abs_"&amp;D7&amp;" := find_pos("&amp;D7&amp;")"</f>
+        <v>abs_op_market := find_pos(op_market)</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>656</v>
@@ -1038,13 +1104,21 @@
         <f aca="false">D8&amp;"="&amp;G8&amp;","&amp;H8</f>
         <v>op_move=0.82,0.5333</v>
       </c>
+      <c r="J8" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D8&amp;", .\config.ini, Proportions, "&amp;D8</f>
+        <v>IniRead, op_move, .\config.ini, Proportions, op_move</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f aca="false">"abs_"&amp;D8&amp;" := find_pos("&amp;D8&amp;")"</f>
+        <v>abs_op_move := find_pos(op_move)</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>681</v>
@@ -1064,13 +1138,21 @@
         <f aca="false">D9&amp;"="&amp;G9&amp;","&amp;H9</f>
         <v>op_attack=0.8513,0.5333</v>
       </c>
+      <c r="J9" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D9&amp;", .\config.ini, Proportions, "&amp;D9</f>
+        <v>IniRead, op_attack, .\config.ini, Proportions, op_attack</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f aca="false">"abs_"&amp;D9&amp;" := find_pos("&amp;D9&amp;")"</f>
+        <v>abs_op_attack := find_pos(op_attack)</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>706</v>
@@ -1090,13 +1172,21 @@
         <f aca="false">D10&amp;"="&amp;G10&amp;","&amp;H10</f>
         <v>op_scout=0.8825,0.5333</v>
       </c>
+      <c r="J10" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D10&amp;", .\config.ini, Proportions, "&amp;D10</f>
+        <v>IniRead, op_scout, .\config.ini, Proportions, op_scout</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f aca="false">"abs_"&amp;D10&amp;" := find_pos("&amp;D10&amp;")"</f>
+        <v>abs_op_scout := find_pos(op_scout)</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>732</v>
@@ -1116,13 +1206,21 @@
         <f aca="false">D11&amp;"="&amp;G11&amp;","&amp;H11</f>
         <v>op_negotiate=0.915,0.5333</v>
       </c>
+      <c r="J11" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D11&amp;", .\config.ini, Proportions, "&amp;D11</f>
+        <v>IniRead, op_negotiate, .\config.ini, Proportions, op_negotiate</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f aca="false">"abs_"&amp;D11&amp;" := find_pos("&amp;D11&amp;")"</f>
+        <v>abs_op_negotiate := find_pos(op_negotiate)</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>758</v>
@@ -1142,13 +1240,21 @@
         <f aca="false">D12&amp;"="&amp;G12&amp;","&amp;H12</f>
         <v>op_info=0.9475,0.5333</v>
       </c>
+      <c r="J12" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D12&amp;", .\config.ini, Proportions, "&amp;D12</f>
+        <v>IniRead, op_info, .\config.ini, Proportions, op_info</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f aca="false">"abs_"&amp;D12&amp;" := find_pos("&amp;D12&amp;")"</f>
+        <v>abs_op_info := find_pos(op_info)</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>782</v>
@@ -1168,13 +1274,21 @@
         <f aca="false">D13&amp;"="&amp;G13&amp;","&amp;H13</f>
         <v>op_assign=0.9775,0.5333</v>
       </c>
+      <c r="J13" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D13&amp;", .\config.ini, Proportions, "&amp;D13</f>
+        <v>IniRead, op_assign, .\config.ini, Proportions, op_assign</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f aca="false">"abs_"&amp;D13&amp;" := find_pos("&amp;D13&amp;")"</f>
+        <v>abs_op_assign := find_pos(op_assign)</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>763</v>
@@ -1194,16 +1308,24 @@
         <f aca="false">D14&amp;"="&amp;G14&amp;","&amp;H14</f>
         <v>op_incident=0.9538,0.1</v>
       </c>
+      <c r="J14" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D14&amp;", .\config.ini, Proportions, "&amp;D14</f>
+        <v>IniRead, op_incident, .\config.ini, Proportions, op_incident</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f aca="false">"abs_"&amp;D14&amp;" := find_pos("&amp;D14&amp;")"</f>
+        <v>abs_op_incident := find_pos(op_incident)</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>400</v>
@@ -1223,13 +1345,21 @@
         <f aca="false">D15&amp;"="&amp;G15&amp;","&amp;H15</f>
         <v>sys_save=0.5,0.6183</v>
       </c>
+      <c r="J15" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D15&amp;", .\config.ini, Proportions, "&amp;D15</f>
+        <v>IniRead, sys_save, .\config.ini, Proportions, sys_save</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f aca="false">"abs_"&amp;D15&amp;" := find_pos("&amp;D15&amp;")"</f>
+        <v>abs_sys_save := find_pos(sys_save)</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>400</v>
@@ -1249,13 +1379,21 @@
         <f aca="false">D16&amp;"="&amp;G16&amp;","&amp;H16</f>
         <v>sys_load=0.5,0.6783</v>
       </c>
+      <c r="J16" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D16&amp;", .\config.ini, Proportions, "&amp;D16</f>
+        <v>IniRead, sys_load, .\config.ini, Proportions, sys_load</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f aca="false">"abs_"&amp;D16&amp;" := find_pos("&amp;D16&amp;")"</f>
+        <v>abs_sys_load := find_pos(sys_load)</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>400</v>
@@ -1275,13 +1413,21 @@
         <f aca="false">D17&amp;"="&amp;G17&amp;","&amp;H17</f>
         <v>sys_resume=0.5,0.7333</v>
       </c>
+      <c r="J17" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D17&amp;", .\config.ini, Proportions, "&amp;D17</f>
+        <v>IniRead, sys_resume, .\config.ini, Proportions, sys_resume</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f aca="false">"abs_"&amp;D17&amp;" := find_pos("&amp;D17&amp;")"</f>
+        <v>abs_sys_resume := find_pos(sys_resume)</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>400</v>
@@ -1301,13 +1447,21 @@
         <f aca="false">D18&amp;"="&amp;G18&amp;","&amp;H18</f>
         <v>sys_exit=0.5,0.79</v>
       </c>
+      <c r="J18" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D18&amp;", .\config.ini, Proportions, "&amp;D18</f>
+        <v>IniRead, sys_exit, .\config.ini, Proportions, sys_exit</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f aca="false">"abs_"&amp;D18&amp;" := find_pos("&amp;D18&amp;")"</f>
+        <v>abs_sys_exit := find_pos(sys_exit)</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>397</v>
@@ -1327,13 +1481,21 @@
         <f aca="false">D19&amp;"="&amp;G19&amp;","&amp;H19</f>
         <v>sys_speed1=0.4963,0.48</v>
       </c>
+      <c r="J19" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D19&amp;", .\config.ini, Proportions, "&amp;D19</f>
+        <v>IniRead, sys_speed1, .\config.ini, Proportions, sys_speed1</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f aca="false">"abs_"&amp;D19&amp;" := find_pos("&amp;D19&amp;")"</f>
+        <v>abs_sys_speed1 := find_pos(sys_speed1)</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>470</v>
@@ -1353,13 +1515,21 @@
         <f aca="false">D20&amp;"="&amp;G20&amp;","&amp;H20</f>
         <v>sys_speed5=0.5875,0.48</v>
       </c>
+      <c r="J20" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D20&amp;", .\config.ini, Proportions, "&amp;D20</f>
+        <v>IniRead, sys_speed5, .\config.ini, Proportions, sys_speed5</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f aca="false">"abs_"&amp;D20&amp;" := find_pos("&amp;D20&amp;")"</f>
+        <v>abs_sys_speed5 := find_pos(sys_speed5)</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>379</v>
@@ -1379,16 +1549,24 @@
         <f aca="false">D21&amp;"="&amp;G21&amp;","&amp;H21</f>
         <v>sys_speed0=0.4738,0.48</v>
       </c>
+      <c r="J21" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D21&amp;", .\config.ini, Proportions, "&amp;D21</f>
+        <v>IniRead, sys_speed0, .\config.ini, Proportions, sys_speed0</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f aca="false">"abs_"&amp;D21&amp;" := find_pos("&amp;D21&amp;")"</f>
+        <v>abs_sys_speed0 := find_pos(sys_speed0)</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>368</v>
@@ -1408,16 +1586,24 @@
         <f aca="false">D22&amp;"="&amp;G22&amp;","&amp;H22</f>
         <v>sys_exit_ok=0.46,0.5867</v>
       </c>
+      <c r="J22" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D22&amp;", .\config.ini, Proportions, "&amp;D22</f>
+        <v>IniRead, sys_exit_ok, .\config.ini, Proportions, sys_exit_ok</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f aca="false">"abs_"&amp;D22&amp;" := find_pos("&amp;D22&amp;")"</f>
+        <v>abs_sys_exit_ok := find_pos(sys_exit_ok)</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>429</v>
@@ -1437,19 +1623,27 @@
         <f aca="false">D23&amp;"="&amp;G23&amp;","&amp;H23</f>
         <v>sys_exit_cancel=0.5363,0.5867</v>
       </c>
+      <c r="J23" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D23&amp;", .\config.ini, Proportions, "&amp;D23</f>
+        <v>IniRead, sys_exit_cancel, .\config.ini, Proportions, sys_exit_cancel</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f aca="false">"abs_"&amp;D23&amp;" := find_pos("&amp;D23&amp;")"</f>
+        <v>abs_sys_exit_cancel := find_pos(sys_exit_cancel)</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>370</v>
@@ -1469,16 +1663,24 @@
         <f aca="false">D24&amp;"="&amp;G24&amp;","&amp;H24</f>
         <v>sl_ok=0.4625,0.775</v>
       </c>
+      <c r="J24" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D24&amp;", .\config.ini, Proportions, "&amp;D24</f>
+        <v>IniRead, sl_ok, .\config.ini, Proportions, sl_ok</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f aca="false">"abs_"&amp;D24&amp;" := find_pos("&amp;D24&amp;")"</f>
+        <v>abs_sl_ok := find_pos(sl_ok)</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>433</v>
@@ -1498,16 +1700,24 @@
         <f aca="false">D25&amp;"="&amp;G25&amp;","&amp;H25</f>
         <v>sl_cancel=0.5413,0.775</v>
       </c>
+      <c r="J25" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D25&amp;", .\config.ini, Proportions, "&amp;D25</f>
+        <v>IniRead, sl_cancel, .\config.ini, Proportions, sl_cancel</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f aca="false">"abs_"&amp;D25&amp;" := find_pos("&amp;D25&amp;")"</f>
+        <v>abs_sl_cancel := find_pos(sl_cancel)</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>400</v>
@@ -1526,6 +1736,14 @@
       <c r="I26" s="0" t="str">
         <f aca="false">D26&amp;"="&amp;G26&amp;","&amp;H26</f>
         <v>sl_slot=0.5,0.6483</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D26&amp;", .\config.ini, Proportions, "&amp;D26</f>
+        <v>IniRead, sl_slot, .\config.ini, Proportions, sl_slot</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f aca="false">"abs_"&amp;D26&amp;" := find_pos("&amp;D26&amp;")"</f>
+        <v>abs_sl_slot := find_pos(sl_slot)</v>
       </c>
     </row>
   </sheetData>

--- a/MK_Hotkeys_Project_Design.xlsx
+++ b/MK_Hotkeys_Project_Design.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Combinations" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="157">
   <si>
     <t xml:space="preserve">名称</t>
   </si>
@@ -200,6 +201,9 @@
     <t xml:space="preserve">sys_resume</t>
   </si>
   <si>
+    <t xml:space="preserve">!s</t>
+  </si>
+  <si>
     <t xml:space="preserve">离开</t>
   </si>
   <si>
@@ -266,6 +270,138 @@
     <t xml:space="preserve">sl_slot</t>
   </si>
   <si>
+    <t xml:space="preserve">子菜单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开始界面读取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_start_load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">历史返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分析返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_analyze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">系统菜单返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人物返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建筑返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">交易返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移动返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出击返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">侦察返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_scout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">交涉返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_negotiate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">情报返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任命返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">传闻返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back_op_incident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建筑物返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成果返回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_fruit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hotkey</t>
   </si>
   <si>
@@ -309,6 +445,54 @@
   </si>
   <si>
     <t xml:space="preserve">F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从各子界面返回经营界面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comb_backs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_backs_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_backs_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_build, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_incident, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_char, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_building, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_incident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_back_char</t>
   </si>
 </sst>
 </file>
@@ -318,7 +502,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -344,13 +528,26 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF413D"/>
+        <bgColor rgb="FFCE181E"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -387,7 +584,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -400,6 +597,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -409,6 +634,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFEF413D"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,30 +702,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="I2:I5 Q2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28:P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.62"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="32.75"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="71.62"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="53.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="1" width="25.75"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="61.61"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="90.37"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="51.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="71.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="54.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="83.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="66.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -542,8 +829,8 @@
         <v>Iniread, k_op_history, .\config.ini, Keys, k_op_history</v>
       </c>
       <c r="O2" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D2&amp;" := Func(""to_click"").Bind(abs_"&amp;D2&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_history := Func("to_click").Bind(abs_op_history, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D2&amp;" := Func(""one_click"").Bind(abs_"&amp;D2&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_history := Func("one_click").Bind(abs_op_history, , if_pos_res)</v>
       </c>
       <c r="P2" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D2&amp;"%, % click_abs_"&amp;D2</f>
@@ -552,6 +839,10 @@
       <c r="Q2" s="0" t="str">
         <f aca="false">B2&amp;": %k_"&amp;D2&amp;"%"</f>
         <v>历史: %k_op_history%</v>
+      </c>
+      <c r="R2" s="0" t="str">
+        <f aca="false">"back_"&amp;D2</f>
+        <v>back_op_history</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -600,8 +891,8 @@
         <v>Iniread, k_op_analyze, .\config.ini, Keys, k_op_analyze</v>
       </c>
       <c r="O3" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D3&amp;" := Func(""to_click"").Bind(abs_"&amp;D3&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_analyze := Func("to_click").Bind(abs_op_analyze, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D3&amp;" := Func(""one_click"").Bind(abs_"&amp;D3&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_analyze := Func("one_click").Bind(abs_op_analyze, , if_pos_res)</v>
       </c>
       <c r="P3" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D3&amp;"%, % click_abs_"&amp;D3</f>
@@ -610,6 +901,10 @@
       <c r="Q3" s="0" t="str">
         <f aca="false">B3&amp;": %k_"&amp;D3&amp;"%"</f>
         <v>分析: %k_op_analyze%</v>
+      </c>
+      <c r="R3" s="0" t="str">
+        <f aca="false">"back_"&amp;D3</f>
+        <v>back_op_analyze</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -658,8 +953,8 @@
         <v>Iniread, k_op_system, .\config.ini, Keys, k_op_system</v>
       </c>
       <c r="O4" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D4&amp;" := Func(""to_click"").Bind(abs_"&amp;D4&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_system := Func("to_click").Bind(abs_op_system, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D4&amp;" := Func(""one_click"").Bind(abs_"&amp;D4&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_system := Func("one_click").Bind(abs_op_system, , if_pos_res)</v>
       </c>
       <c r="P4" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D4&amp;"%, % click_abs_"&amp;D4</f>
@@ -668,6 +963,10 @@
       <c r="Q4" s="0" t="str">
         <f aca="false">B4&amp;": %k_"&amp;D4&amp;"%"</f>
         <v>系统: %k_op_system%</v>
+      </c>
+      <c r="R4" s="0" t="str">
+        <f aca="false">"back_"&amp;D4</f>
+        <v>back_op_system</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -716,8 +1015,8 @@
         <v>Iniread, k_op_characters, .\config.ini, Keys, k_op_characters</v>
       </c>
       <c r="O5" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D5&amp;" := Func(""to_click"").Bind(abs_"&amp;D5&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_characters := Func("to_click").Bind(abs_op_characters, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D5&amp;" := Func(""one_click"").Bind(abs_"&amp;D5&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_characters := Func("one_click").Bind(abs_op_characters, , if_pos_res)</v>
       </c>
       <c r="P5" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D5&amp;"%, % click_abs_"&amp;D5</f>
@@ -726,6 +1025,10 @@
       <c r="Q5" s="0" t="str">
         <f aca="false">B5&amp;": %k_"&amp;D5&amp;"%"</f>
         <v>人物: %k_op_characters%</v>
+      </c>
+      <c r="R5" s="0" t="str">
+        <f aca="false">"back_"&amp;D5</f>
+        <v>back_op_characters</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -774,8 +1077,8 @@
         <v>Iniread, k_op_buildings, .\config.ini, Keys, k_op_buildings</v>
       </c>
       <c r="O6" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D6&amp;" := Func(""to_click"").Bind(abs_"&amp;D6&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_buildings := Func("to_click").Bind(abs_op_buildings, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D6&amp;" := Func(""one_click"").Bind(abs_"&amp;D6&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_buildings := Func("one_click").Bind(abs_op_buildings, , if_pos_res)</v>
       </c>
       <c r="P6" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D6&amp;"%, % click_abs_"&amp;D6</f>
@@ -784,6 +1087,10 @@
       <c r="Q6" s="0" t="str">
         <f aca="false">B6&amp;": %k_"&amp;D6&amp;"%"</f>
         <v>建筑: %k_op_buildings%</v>
+      </c>
+      <c r="R6" s="0" t="str">
+        <f aca="false">"back_"&amp;D6</f>
+        <v>back_op_buildings</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -832,8 +1139,8 @@
         <v>Iniread, k_op_market, .\config.ini, Keys, k_op_market</v>
       </c>
       <c r="O7" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D7&amp;" := Func(""to_click"").Bind(abs_"&amp;D7&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_market := Func("to_click").Bind(abs_op_market, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D7&amp;" := Func(""one_click"").Bind(abs_"&amp;D7&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_market := Func("one_click").Bind(abs_op_market, , if_pos_res)</v>
       </c>
       <c r="P7" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D7&amp;"%, % click_abs_"&amp;D7</f>
@@ -842,6 +1149,10 @@
       <c r="Q7" s="0" t="str">
         <f aca="false">B7&amp;": %k_"&amp;D7&amp;"%"</f>
         <v>交易: %k_op_market%</v>
+      </c>
+      <c r="R7" s="0" t="str">
+        <f aca="false">"back_"&amp;D7</f>
+        <v>back_op_market</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -890,8 +1201,8 @@
         <v>Iniread, k_op_move, .\config.ini, Keys, k_op_move</v>
       </c>
       <c r="O8" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D8&amp;" := Func(""to_click"").Bind(abs_"&amp;D8&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_move := Func("to_click").Bind(abs_op_move, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D8&amp;" := Func(""one_click"").Bind(abs_"&amp;D8&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_move := Func("one_click").Bind(abs_op_move, , if_pos_res)</v>
       </c>
       <c r="P8" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D8&amp;"%, % click_abs_"&amp;D8</f>
@@ -900,6 +1211,10 @@
       <c r="Q8" s="0" t="str">
         <f aca="false">B8&amp;": %k_"&amp;D8&amp;"%"</f>
         <v>移动: %k_op_move%</v>
+      </c>
+      <c r="R8" s="0" t="str">
+        <f aca="false">"back_"&amp;D8</f>
+        <v>back_op_move</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -948,8 +1263,8 @@
         <v>Iniread, k_op_attack, .\config.ini, Keys, k_op_attack</v>
       </c>
       <c r="O9" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D9&amp;" := Func(""to_click"").Bind(abs_"&amp;D9&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_attack := Func("to_click").Bind(abs_op_attack, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D9&amp;" := Func(""one_click"").Bind(abs_"&amp;D9&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_attack := Func("one_click").Bind(abs_op_attack, , if_pos_res)</v>
       </c>
       <c r="P9" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D9&amp;"%, % click_abs_"&amp;D9</f>
@@ -958,6 +1273,10 @@
       <c r="Q9" s="0" t="str">
         <f aca="false">B9&amp;": %k_"&amp;D9&amp;"%"</f>
         <v>出击: %k_op_attack%</v>
+      </c>
+      <c r="R9" s="0" t="str">
+        <f aca="false">"back_"&amp;D9</f>
+        <v>back_op_attack</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1006,8 +1325,8 @@
         <v>Iniread, k_op_scout, .\config.ini, Keys, k_op_scout</v>
       </c>
       <c r="O10" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D10&amp;" := Func(""to_click"").Bind(abs_"&amp;D10&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_scout := Func("to_click").Bind(abs_op_scout, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D10&amp;" := Func(""one_click"").Bind(abs_"&amp;D10&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_scout := Func("one_click").Bind(abs_op_scout, , if_pos_res)</v>
       </c>
       <c r="P10" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D10&amp;"%, % click_abs_"&amp;D10</f>
@@ -1016,6 +1335,10 @@
       <c r="Q10" s="0" t="str">
         <f aca="false">B10&amp;": %k_"&amp;D10&amp;"%"</f>
         <v>侦察: %k_op_scout%</v>
+      </c>
+      <c r="R10" s="0" t="str">
+        <f aca="false">"back_"&amp;D10</f>
+        <v>back_op_scout</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1064,8 +1387,8 @@
         <v>Iniread, k_op_negotiate, .\config.ini, Keys, k_op_negotiate</v>
       </c>
       <c r="O11" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D11&amp;" := Func(""to_click"").Bind(abs_"&amp;D11&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_negotiate := Func("to_click").Bind(abs_op_negotiate, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D11&amp;" := Func(""one_click"").Bind(abs_"&amp;D11&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_negotiate := Func("one_click").Bind(abs_op_negotiate, , if_pos_res)</v>
       </c>
       <c r="P11" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D11&amp;"%, % click_abs_"&amp;D11</f>
@@ -1074,6 +1397,10 @@
       <c r="Q11" s="0" t="str">
         <f aca="false">B11&amp;": %k_"&amp;D11&amp;"%"</f>
         <v>交涉: %k_op_negotiate%</v>
+      </c>
+      <c r="R11" s="0" t="str">
+        <f aca="false">"back_"&amp;D11</f>
+        <v>back_op_negotiate</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1122,8 +1449,8 @@
         <v>Iniread, k_op_info, .\config.ini, Keys, k_op_info</v>
       </c>
       <c r="O12" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D12&amp;" := Func(""to_click"").Bind(abs_"&amp;D12&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_info := Func("to_click").Bind(abs_op_info, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D12&amp;" := Func(""one_click"").Bind(abs_"&amp;D12&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_info := Func("one_click").Bind(abs_op_info, , if_pos_res)</v>
       </c>
       <c r="P12" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D12&amp;"%, % click_abs_"&amp;D12</f>
@@ -1132,6 +1459,10 @@
       <c r="Q12" s="0" t="str">
         <f aca="false">B12&amp;": %k_"&amp;D12&amp;"%"</f>
         <v>情报: %k_op_info%</v>
+      </c>
+      <c r="R12" s="0" t="str">
+        <f aca="false">"back_"&amp;D12</f>
+        <v>back_op_info</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1180,8 +1511,8 @@
         <v>Iniread, k_op_assign, .\config.ini, Keys, k_op_assign</v>
       </c>
       <c r="O13" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D13&amp;" := Func(""to_click"").Bind(abs_"&amp;D13&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_assign := Func("to_click").Bind(abs_op_assign, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D13&amp;" := Func(""one_click"").Bind(abs_"&amp;D13&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_assign := Func("one_click").Bind(abs_op_assign, , if_pos_res)</v>
       </c>
       <c r="P13" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D13&amp;"%, % click_abs_"&amp;D13</f>
@@ -1190,6 +1521,10 @@
       <c r="Q13" s="0" t="str">
         <f aca="false">B13&amp;": %k_"&amp;D13&amp;"%"</f>
         <v>任命: %k_op_assign%</v>
+      </c>
+      <c r="R13" s="0" t="str">
+        <f aca="false">"back_"&amp;D13</f>
+        <v>back_op_assign</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1238,13 +1573,17 @@
         <v>Iniread, k_op_incident, .\config.ini, Keys, k_op_incident</v>
       </c>
       <c r="O14" s="0" t="str">
-        <f aca="false">"click_abs_"&amp;D14&amp;" := Func(""to_click"").Bind(abs_"&amp;D14&amp;", , if_pos_res)"</f>
-        <v>click_abs_op_incident := Func("to_click").Bind(abs_op_incident, , if_pos_res)</v>
+        <f aca="false">"click_abs_"&amp;D14&amp;" := Func(""one_click"").Bind(abs_"&amp;D14&amp;", , if_pos_res)"</f>
+        <v>click_abs_op_incident := Func("one_click").Bind(abs_op_incident, , if_pos_res)</v>
       </c>
       <c r="P14" s="0" t="str">
         <f aca="false">"Hotkey, %k_"&amp;D14&amp;"%, % click_abs_"&amp;D14</f>
         <v>Hotkey, %k_op_incident%, % click_abs_op_incident</v>
       </c>
+      <c r="R14" s="0" t="str">
+        <f aca="false">"back_"&amp;D14</f>
+        <v>back_op_incident</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -1318,11 +1657,14 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>400</v>
@@ -1353,10 +1695,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>400</v>
@@ -1387,10 +1729,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>397</v>
@@ -1421,10 +1763,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>470</v>
@@ -1455,10 +1797,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>379</v>
@@ -1489,13 +1831,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>368</v>
@@ -1526,13 +1868,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>429</v>
@@ -1563,16 +1905,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>370</v>
@@ -1603,13 +1945,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>433</v>
@@ -1640,13 +1982,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>400</v>
@@ -1675,6 +2017,762 @@
         <v>abs_sl_slot := find_pos(sl_slot)</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>482</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">ROUND(F27/800,4)</f>
+        <v>0.6025</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">ROUND(G27/600,4)</f>
+        <v>0.5367</v>
+      </c>
+      <c r="J27" s="0" t="str">
+        <f aca="false">D27&amp;"="&amp;H27&amp;","&amp;I27</f>
+        <v>sub_start_load=0.6025,0.5367</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D27&amp;", .\config.ini, Proportions, "&amp;D27</f>
+        <v>IniRead, sub_start_load, .\config.ini, Proportions, sub_start_load</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f aca="false">"abs_"&amp;D27&amp;" := find_pos("&amp;D27&amp;")"</f>
+        <v>abs_sub_start_load := find_pos(sub_start_load)</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>566</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <f aca="false">ROUND(F28/800,4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <f aca="false">ROUND(G28/600,4)</f>
+        <v>0.9433</v>
+      </c>
+      <c r="J28" s="4" t="str">
+        <f aca="false">D28&amp;"="&amp;H28&amp;","&amp;I28</f>
+        <v>back_op_history=0.5,0.9433</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D28&amp;", .\config.ini, Proportions, "&amp;D28</f>
+        <v>IniRead, back_op_history, .\config.ini, Proportions, back_op_history</v>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f aca="false">"abs_"&amp;D28&amp;" := find_pos("&amp;D28&amp;")"</f>
+        <v>abs_back_op_history := find_pos(back_op_history)</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D28&amp;" := Func(""one_click"").Bind(abs_"&amp;D28&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_history := Func("one_click").Bind(abs_back_op_history, , if_pos_res)</v>
+      </c>
+      <c r="P28" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N28&amp;"%, % click_abs_"&amp;D28</f>
+        <v>Hotkey, %k_op_backs%%k_op_history%, % click_abs_back_op_history</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>566</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <f aca="false">ROUND(F29/800,4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <f aca="false">ROUND(G29/600,4)</f>
+        <v>0.9433</v>
+      </c>
+      <c r="J29" s="4" t="str">
+        <f aca="false">D29&amp;"="&amp;H29&amp;","&amp;I29</f>
+        <v>back_op_analyze=0.5,0.9433</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D29&amp;", .\config.ini, Proportions, "&amp;D29</f>
+        <v>IniRead, back_op_analyze, .\config.ini, Proportions, back_op_analyze</v>
+      </c>
+      <c r="L29" s="5" t="str">
+        <f aca="false">"abs_"&amp;D29&amp;" := find_pos("&amp;D29&amp;")"</f>
+        <v>abs_back_op_analyze := find_pos(back_op_analyze)</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D29&amp;" := Func(""one_click"").Bind(abs_"&amp;D29&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_analyze := Func("one_click").Bind(abs_back_op_analyze, , if_pos_res)</v>
+      </c>
+      <c r="P29" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N29&amp;"%, % click_abs_"&amp;D29</f>
+        <v>Hotkey, %k_op_backs%%k_op_analyze%, % click_abs_back_op_analyze</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">ROUND(F30/800,4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">ROUND(G30/600,4)</f>
+        <v>0.7333</v>
+      </c>
+      <c r="J30" s="0" t="str">
+        <f aca="false">D30&amp;"="&amp;H30&amp;","&amp;I30</f>
+        <v>sys_resume=0.5,0.7333</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f aca="false">"IniRead, "&amp;D30&amp;", .\config.ini, Proportions, "&amp;D30</f>
+        <v>IniRead, sys_resume, .\config.ini, Proportions, sys_resume</v>
+      </c>
+      <c r="L30" s="2" t="str">
+        <f aca="false">"abs_"&amp;D30&amp;" := find_pos("&amp;D30&amp;")"</f>
+        <v>abs_sys_resume := find_pos(sys_resume)</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D30&amp;" := Func(""one_click"").Bind(abs_"&amp;D30&amp;", , if_pos_res)"</f>
+        <v>click_abs_sys_resume := Func("one_click").Bind(abs_sys_resume, , if_pos_res)</v>
+      </c>
+      <c r="P30" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N30&amp;"%, % click_abs_"&amp;D30</f>
+        <v>Hotkey, %k_op_backs%%k_op_system%, % click_abs_sys_resume</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>552</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>490</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <f aca="false">ROUND(F31/800,4)</f>
+        <v>0.69</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <f aca="false">ROUND(G31/600,4)</f>
+        <v>0.8167</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <f aca="false">D31&amp;"="&amp;H31&amp;","&amp;I31</f>
+        <v>back_op_characters=0.69,0.8167</v>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D31&amp;", .\config.ini, Proportions, "&amp;D31</f>
+        <v>IniRead, back_op_characters, .\config.ini, Proportions, back_op_characters</v>
+      </c>
+      <c r="L31" s="5" t="str">
+        <f aca="false">"abs_"&amp;D31&amp;" := find_pos("&amp;D31&amp;")"</f>
+        <v>abs_back_op_characters := find_pos(back_op_characters)</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D31&amp;" := Func(""one_click"").Bind(abs_"&amp;D31&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_characters := Func("one_click").Bind(abs_back_op_characters, , if_pos_res)</v>
+      </c>
+      <c r="P31" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N31&amp;"%, % click_abs_"&amp;D31</f>
+        <v>Hotkey, %k_op_backs%%k_op_characters%, % click_abs_back_op_characters</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>442</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>441</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <f aca="false">ROUND(F32/800,4)</f>
+        <v>0.5525</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <f aca="false">ROUND(G32/600,4)</f>
+        <v>0.735</v>
+      </c>
+      <c r="J32" s="4" t="str">
+        <f aca="false">D32&amp;"="&amp;H32&amp;","&amp;I32</f>
+        <v>back_op_buildings=0.5525,0.735</v>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D32&amp;", .\config.ini, Proportions, "&amp;D32</f>
+        <v>IniRead, back_op_buildings, .\config.ini, Proportions, back_op_buildings</v>
+      </c>
+      <c r="L32" s="5" t="str">
+        <f aca="false">"abs_"&amp;D32&amp;" := find_pos("&amp;D32&amp;")"</f>
+        <v>abs_back_op_buildings := find_pos(back_op_buildings)</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D32&amp;" := Func(""one_click"").Bind(abs_"&amp;D32&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_buildings := Func("one_click").Bind(abs_back_op_buildings, , if_pos_res)</v>
+      </c>
+      <c r="P32" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N32&amp;"%, % click_abs_"&amp;D32</f>
+        <v>Hotkey, %k_op_backs%%k_op_buildings%, % click_abs_back_op_buildings</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>566</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <f aca="false">ROUND(F33/800,4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <f aca="false">ROUND(G33/600,4)</f>
+        <v>0.9433</v>
+      </c>
+      <c r="J33" s="4" t="str">
+        <f aca="false">D33&amp;"="&amp;H33&amp;","&amp;I33</f>
+        <v>back_op_market=0.5,0.9433</v>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D33&amp;", .\config.ini, Proportions, "&amp;D33</f>
+        <v>IniRead, back_op_market, .\config.ini, Proportions, back_op_market</v>
+      </c>
+      <c r="L33" s="5" t="str">
+        <f aca="false">"abs_"&amp;D33&amp;" := find_pos("&amp;D33&amp;")"</f>
+        <v>abs_back_op_market := find_pos(back_op_market)</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D33&amp;" := Func(""one_click"").Bind(abs_"&amp;D33&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_market := Func("one_click").Bind(abs_back_op_market, , if_pos_res)</v>
+      </c>
+      <c r="P33" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N33&amp;"%, % click_abs_"&amp;D33</f>
+        <v>Hotkey, %k_op_backs%%k_op_market%, % click_abs_back_op_market</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>485</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>522</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <f aca="false">ROUND(F34/800,4)</f>
+        <v>0.6063</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <f aca="false">ROUND(G34/600,4)</f>
+        <v>0.87</v>
+      </c>
+      <c r="J34" s="4" t="str">
+        <f aca="false">D34&amp;"="&amp;H34&amp;","&amp;I34</f>
+        <v>back_op_move=0.6063,0.87</v>
+      </c>
+      <c r="K34" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D34&amp;", .\config.ini, Proportions, "&amp;D34</f>
+        <v>IniRead, back_op_move, .\config.ini, Proportions, back_op_move</v>
+      </c>
+      <c r="L34" s="5" t="str">
+        <f aca="false">"abs_"&amp;D34&amp;" := find_pos("&amp;D34&amp;")"</f>
+        <v>abs_back_op_move := find_pos(back_op_move)</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D34&amp;" := Func(""one_click"").Bind(abs_"&amp;D34&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_move := Func("one_click").Bind(abs_back_op_move, , if_pos_res)</v>
+      </c>
+      <c r="P34" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N34&amp;"%, % click_abs_"&amp;D34</f>
+        <v>Hotkey, %k_op_backs%%k_op_move%, % click_abs_back_op_move</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>485</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>522</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <f aca="false">ROUND(F35/800,4)</f>
+        <v>0.6063</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <f aca="false">ROUND(G35/600,4)</f>
+        <v>0.87</v>
+      </c>
+      <c r="J35" s="4" t="str">
+        <f aca="false">D35&amp;"="&amp;H35&amp;","&amp;I35</f>
+        <v>back_op_attack=0.6063,0.87</v>
+      </c>
+      <c r="K35" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D35&amp;", .\config.ini, Proportions, "&amp;D35</f>
+        <v>IniRead, back_op_attack, .\config.ini, Proportions, back_op_attack</v>
+      </c>
+      <c r="L35" s="5" t="str">
+        <f aca="false">"abs_"&amp;D35&amp;" := find_pos("&amp;D35&amp;")"</f>
+        <v>abs_back_op_attack := find_pos(back_op_attack)</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D35&amp;" := Func(""one_click"").Bind(abs_"&amp;D35&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_attack := Func("one_click").Bind(abs_back_op_attack, , if_pos_res)</v>
+      </c>
+      <c r="P35" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N35&amp;"%, % click_abs_"&amp;D35</f>
+        <v>Hotkey, %k_op_backs%%k_op_attack%, % click_abs_back_op_attack</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>485</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>522</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <f aca="false">ROUND(F36/800,4)</f>
+        <v>0.6063</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <f aca="false">ROUND(G36/600,4)</f>
+        <v>0.87</v>
+      </c>
+      <c r="J36" s="4" t="str">
+        <f aca="false">D36&amp;"="&amp;H36&amp;","&amp;I36</f>
+        <v>back_op_scout=0.6063,0.87</v>
+      </c>
+      <c r="K36" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D36&amp;", .\config.ini, Proportions, "&amp;D36</f>
+        <v>IniRead, back_op_scout, .\config.ini, Proportions, back_op_scout</v>
+      </c>
+      <c r="L36" s="5" t="str">
+        <f aca="false">"abs_"&amp;D36&amp;" := find_pos("&amp;D36&amp;")"</f>
+        <v>abs_back_op_scout := find_pos(back_op_scout)</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D36&amp;" := Func(""one_click"").Bind(abs_"&amp;D36&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_scout := Func("one_click").Bind(abs_back_op_scout, , if_pos_res)</v>
+      </c>
+      <c r="P36" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N36&amp;"%, % click_abs_"&amp;D36</f>
+        <v>Hotkey, %k_op_backs%%k_op_scout%, % click_abs_back_op_scout</v>
+      </c>
+    </row>
+    <row r="37" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>485</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>522</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <f aca="false">ROUND(F37/800,4)</f>
+        <v>0.6063</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <f aca="false">ROUND(G37/600,4)</f>
+        <v>0.87</v>
+      </c>
+      <c r="J37" s="4" t="str">
+        <f aca="false">D37&amp;"="&amp;H37&amp;","&amp;I37</f>
+        <v>back_op_negotiate=0.6063,0.87</v>
+      </c>
+      <c r="K37" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D37&amp;", .\config.ini, Proportions, "&amp;D37</f>
+        <v>IniRead, back_op_negotiate, .\config.ini, Proportions, back_op_negotiate</v>
+      </c>
+      <c r="L37" s="5" t="str">
+        <f aca="false">"abs_"&amp;D37&amp;" := find_pos("&amp;D37&amp;")"</f>
+        <v>abs_back_op_negotiate := find_pos(back_op_negotiate)</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D37&amp;" := Func(""one_click"").Bind(abs_"&amp;D37&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_negotiate := Func("one_click").Bind(abs_back_op_negotiate, , if_pos_res)</v>
+      </c>
+      <c r="P37" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N37&amp;"%, % click_abs_"&amp;D37</f>
+        <v>Hotkey, %k_op_backs%%k_op_negotiate%, % click_abs_back_op_negotiate</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>508</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <f aca="false">ROUND(F38/800,4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <f aca="false">ROUND(G38/600,4)</f>
+        <v>0.8467</v>
+      </c>
+      <c r="J38" s="4" t="str">
+        <f aca="false">D38&amp;"="&amp;H38&amp;","&amp;I38</f>
+        <v>back_op_info=0.5,0.8467</v>
+      </c>
+      <c r="K38" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D38&amp;", .\config.ini, Proportions, "&amp;D38</f>
+        <v>IniRead, back_op_info, .\config.ini, Proportions, back_op_info</v>
+      </c>
+      <c r="L38" s="5" t="str">
+        <f aca="false">"abs_"&amp;D38&amp;" := find_pos("&amp;D38&amp;")"</f>
+        <v>abs_back_op_info := find_pos(back_op_info)</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D38&amp;" := Func(""one_click"").Bind(abs_"&amp;D38&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_info := Func("one_click").Bind(abs_back_op_info, , if_pos_res)</v>
+      </c>
+      <c r="P38" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N38&amp;"%, % click_abs_"&amp;D38</f>
+        <v>Hotkey, %k_op_backs%%k_op_info%, % click_abs_back_op_info</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>566</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <f aca="false">ROUND(F39/800,4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <f aca="false">ROUND(G39/600,4)</f>
+        <v>0.9433</v>
+      </c>
+      <c r="J39" s="4" t="str">
+        <f aca="false">D39&amp;"="&amp;H39&amp;","&amp;I39</f>
+        <v>back_op_assign=0.5,0.9433</v>
+      </c>
+      <c r="K39" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D39&amp;", .\config.ini, Proportions, "&amp;D39</f>
+        <v>IniRead, back_op_assign, .\config.ini, Proportions, back_op_assign</v>
+      </c>
+      <c r="L39" s="5" t="str">
+        <f aca="false">"abs_"&amp;D39&amp;" := find_pos("&amp;D39&amp;")"</f>
+        <v>abs_back_op_assign := find_pos(back_op_assign)</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D39&amp;" := Func(""one_click"").Bind(abs_"&amp;D39&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_assign := Func("one_click").Bind(abs_back_op_assign, , if_pos_res)</v>
+      </c>
+      <c r="P39" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N39&amp;"%, % click_abs_"&amp;D39</f>
+        <v>Hotkey, %k_op_backs%%k_op_assign%, % click_abs_back_op_assign</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <f aca="false">ROUND(F40/800,4)</f>
+        <v>0.5425</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <f aca="false">ROUND(G40/600,4)</f>
+        <v>0.6767</v>
+      </c>
+      <c r="J40" s="4" t="str">
+        <f aca="false">D40&amp;"="&amp;H40&amp;","&amp;I40</f>
+        <v>back_op_incident=0.5425,0.6767</v>
+      </c>
+      <c r="K40" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D40&amp;", .\config.ini, Proportions, "&amp;D40</f>
+        <v>IniRead, back_op_incident, .\config.ini, Proportions, back_op_incident</v>
+      </c>
+      <c r="L40" s="5" t="str">
+        <f aca="false">"abs_"&amp;D40&amp;" := find_pos("&amp;D40&amp;")"</f>
+        <v>abs_back_op_incident := find_pos(back_op_incident)</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="0" t="str">
+        <f aca="false">"click_abs_"&amp;D40&amp;" := Func(""one_click"").Bind(abs_"&amp;D40&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_incident := Func("one_click").Bind(abs_back_op_incident, , if_pos_res)</v>
+      </c>
+      <c r="P40" s="0" t="str">
+        <f aca="false">"Hotkey, %k_op_backs%%k_"&amp;N40&amp;"%, % click_abs_"&amp;D40</f>
+        <v>Hotkey, %k_op_backs%%k_op_incident%, % click_abs_back_op_incident</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <f aca="false">ROUND(F46/800,4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <f aca="false">ROUND(G46/600,4)</f>
+        <v>0.7933</v>
+      </c>
+      <c r="J46" s="4" t="str">
+        <f aca="false">D46&amp;"="&amp;H46&amp;","&amp;I46</f>
+        <v>sub_back_building=0.5,0.7933</v>
+      </c>
+      <c r="K46" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D46&amp;", .\config.ini, Proportions, "&amp;D46</f>
+        <v>IniRead, sub_back_building, .\config.ini, Proportions, sub_back_building</v>
+      </c>
+      <c r="L46" s="5" t="str">
+        <f aca="false">"abs_"&amp;D46&amp;" := find_pos("&amp;D46&amp;")"</f>
+        <v>abs_sub_back_building := find_pos(sub_back_building)</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>508</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <f aca="false">ROUND(F47/800,4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <f aca="false">ROUND(G47/600,4)</f>
+        <v>0.8467</v>
+      </c>
+      <c r="J47" s="4" t="str">
+        <f aca="false">D47&amp;"="&amp;H47&amp;","&amp;I47</f>
+        <v>sub_back_fruit=0.5,0.8467</v>
+      </c>
+      <c r="K47" s="5" t="str">
+        <f aca="false">"IniRead, "&amp;D47&amp;", .\config.ini, Proportions, "&amp;D47</f>
+        <v>IniRead, sub_back_fruit, .\config.ini, Proportions, sub_back_fruit</v>
+      </c>
+      <c r="L47" s="5" t="str">
+        <f aca="false">"abs_"&amp;D47&amp;" := find_pos("&amp;D47&amp;")"</f>
+        <v>abs_sub_back_fruit := find_pos(sub_back_fruit)</v>
+      </c>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1691,22 +2789,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="P28:P40 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.65"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="1" width="22.75"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="56.76"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="68.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="48.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="68.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="48.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.65"/>
   </cols>
@@ -1722,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -1742,16 +2840,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="str">
         <f aca="false">"k_"&amp;C2&amp;"="&amp;D2</f>
@@ -1776,16 +2874,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="str">
         <f aca="false">"k_"&amp;C3&amp;"="&amp;D3</f>
@@ -1810,16 +2908,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="E4" s="1" t="str">
         <f aca="false">"k_"&amp;C4&amp;"="&amp;D4</f>
@@ -1844,16 +2942,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="str">
         <f aca="false">"k_"&amp;C5&amp;"="&amp;D5</f>
@@ -1874,6 +2972,40 @@
       <c r="I5" s="0" t="str">
         <f aca="false">B5&amp;": %k_"&amp;C5&amp;"%"</f>
         <v>快速读取: %k_comb_quick_load%</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f aca="false">"k_"&amp;C6&amp;"="&amp;D6</f>
+        <v>k_comb_backs=Esc</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f aca="false">"Iniread, k_"&amp;C6&amp;", .\config.ini, Keys, k_"&amp;C6</f>
+        <v>Iniread, k_comb_backs, .\config.ini, Keys, k_comb_backs</v>
+      </c>
+      <c r="G6" s="8" t="str">
+        <f aca="false">"click_"&amp;C6&amp;" := Func(""multi_clicks"").Bind("&amp;C6&amp;", if_pos_res)"</f>
+        <v>click_comb_backs := Func("multi_clicks").Bind(comb_backs, if_pos_res)</v>
+      </c>
+      <c r="H6" s="8" t="str">
+        <f aca="false">"Hotkey, %k_"&amp;C6&amp;"%, % click_"&amp;C6</f>
+        <v>Hotkey, %k_comb_backs%, % click_comb_backs</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f aca="false">B6&amp;": %k_"&amp;C6&amp;"%"</f>
+        <v>从各子界面返回经营界面: %k_comb_backs%</v>
       </c>
     </row>
   </sheetData>
@@ -1885,4 +3017,120 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="P28:P40 C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="0" t="str">
+        <f aca="false">A1&amp;", "</f>
+        <v>sub_backs_1, </v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="0" t="str">
+        <f aca="false">A2&amp;", "</f>
+        <v>sub_back_2, </v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <f aca="false">A3&amp;", "</f>
+        <v>sub_back_3, </v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="0" t="str">
+        <f aca="false">A4&amp;", "</f>
+        <v>sub_back_build, </v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <f aca="false">A5&amp;", "</f>
+        <v>sub_back_incident, </v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="0" t="str">
+        <f aca="false">A6&amp;", "</f>
+        <v>sub_back_char, </v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <f aca="false">A7&amp;", "</f>
+        <v>sub_back_building, </v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/MK_Hotkeys_Project_Design.xlsx
+++ b/MK_Hotkeys_Project_Design.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="176">
   <si>
     <t>名称</t>
   </si>
@@ -461,71 +461,71 @@
   </si>
   <si>
     <t>区域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备栏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>物品栏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>仓库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人物头像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>物品第一栏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>仓库第一栏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备第一栏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备第二栏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备第三栏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备第四栏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>物品界面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>item_portrait</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>item_inv_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>item_storage_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>item_equipment_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>item_equipment_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>item_equipment_3</t>
@@ -535,27 +535,55 @@
   </si>
   <si>
     <t>region_s_equipment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>region_e_equipment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>region_s_inventory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>region_e_inventory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>region_s_storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>region_e_storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗物品栏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>region_s_combat_i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>region_e_combat_i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始界面退出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_start_exit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗武器栏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_combat_weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -578,18 +606,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -607,7 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -622,7 +650,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -650,18 +678,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1007,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43:J55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1018,7 +1046,7 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="12.125" customWidth="1"/>
@@ -1105,23 +1133,23 @@
         <v>32</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H40" si="0">ROUND(F2/800,4)</f>
+        <f t="shared" ref="H2:H41" si="0">ROUND(F2/800,4)</f>
         <v>0.8538</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I40" si="1">ROUND(G2/600,4)</f>
+        <f t="shared" ref="I2:I41" si="1">ROUND(G2/600,4)</f>
         <v>5.33E-2</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J40" si="2">D2&amp;"="&amp;H2&amp;","&amp;I2</f>
+        <f t="shared" ref="J2:J41" si="2">D2&amp;"="&amp;H2&amp;","&amp;I2</f>
         <v>op_history=0.8538,0.0533</v>
       </c>
       <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K40" si="3">"IniRead, "&amp;D2&amp;", .\config.ini, Proportions, "&amp;D2</f>
+        <f t="shared" ref="K2:K41" si="3">"IniRead, "&amp;D2&amp;", .\config.ini, Proportions, "&amp;D2</f>
         <v>IniRead, op_history, .\config.ini, Proportions, op_history</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f t="shared" ref="L2:L40" si="4">"abs_"&amp;D2&amp;" := find_pos("&amp;D2&amp;")"</f>
+        <f t="shared" ref="L2:L41" si="4">"abs_"&amp;D2&amp;" := find_pos("&amp;D2&amp;")"</f>
         <v>abs_op_history := find_pos(op_history)</v>
       </c>
       <c r="M2" s="1" t="str">
@@ -2359,64 +2387,50 @@
         <v>abs_sub_start_load := find_pos(sub_start_load)</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="4">
-        <v>400</v>
-      </c>
-      <c r="G28" s="4">
-        <v>566</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="1"/>
-        <v>0.94330000000000003</v>
-      </c>
-      <c r="J28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>back_op_history=0.5,0.9433</v>
-      </c>
-      <c r="K28" s="5" t="str">
+    <row r="28" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="11">
+        <v>300</v>
+      </c>
+      <c r="G28" s="11">
+        <v>280</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" ref="H28" si="11">ROUND(F28/800,4)</f>
+        <v>0.375</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" ref="I28" si="12">ROUND(G28/600,4)</f>
+        <v>0.4667</v>
+      </c>
+      <c r="J28" s="11" t="str">
+        <f t="shared" ref="J28" si="13">D28&amp;"="&amp;H28&amp;","&amp;I28</f>
+        <v>sub_start_exit=0.375,0.4667</v>
+      </c>
+      <c r="K28" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IniRead, back_op_history, .\config.ini, Proportions, back_op_history</v>
-      </c>
-      <c r="L28" s="5" t="str">
+        <v>IniRead, sub_start_exit, .\config.ini, Proportions, sub_start_exit</v>
+      </c>
+      <c r="L28" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>abs_back_op_history := find_pos(back_op_history)</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" ref="O28:O40" si="11">"click_abs_"&amp;D28&amp;" := Func(""one_click"").Bind(abs_"&amp;D28&amp;", , if_pos_res)"</f>
-        <v>click_abs_back_op_history := Func("one_click").Bind(abs_back_op_history, , if_pos_res)</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" ref="P28:P40" si="12">"Hotkey, %k_op_backs%%k_"&amp;N28&amp;"%, % click_abs_"&amp;D28</f>
-        <v>Hotkey, %k_op_backs%%k_op_history%, % click_abs_back_op_history</v>
-      </c>
+        <v>abs_sub_start_exit := find_pos(sub_start_exit)</v>
+      </c>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4">
         <v>400</v>
@@ -2434,280 +2448,280 @@
       </c>
       <c r="J29" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>back_op_analyze=0.5,0.9433</v>
+        <v>back_op_history=0.5,0.9433</v>
       </c>
       <c r="K29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>IniRead, back_op_analyze, .\config.ini, Proportions, back_op_analyze</v>
+        <v>IniRead, back_op_history, .\config.ini, Proportions, back_op_history</v>
       </c>
       <c r="L29" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>abs_back_op_analyze := find_pos(back_op_analyze)</v>
+        <v>abs_back_op_history := find_pos(back_op_history)</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="11"/>
-        <v>click_abs_back_op_analyze := Func("one_click").Bind(abs_back_op_analyze, , if_pos_res)</v>
+        <f t="shared" ref="O29:O41" si="14">"click_abs_"&amp;D29&amp;" := Func(""one_click"").Bind(abs_"&amp;D29&amp;", , if_pos_res)"</f>
+        <v>click_abs_back_op_history := Func("one_click").Bind(abs_back_op_history, , if_pos_res)</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="12"/>
-        <v>Hotkey, %k_op_backs%%k_op_analyze%, % click_abs_back_op_analyze</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30">
+        <f t="shared" ref="P29:P41" si="15">"Hotkey, %k_op_backs%%k_"&amp;N29&amp;"%, % click_abs_"&amp;D29</f>
+        <v>Hotkey, %k_op_backs%%k_op_history%, % click_abs_back_op_history</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="4">
         <v>400</v>
       </c>
-      <c r="G30">
-        <v>440</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="4">
+        <v>566</v>
+      </c>
+      <c r="H30" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.94330000000000003</v>
+      </c>
+      <c r="J30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>back_op_analyze=0.5,0.9433</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>IniRead, back_op_analyze, .\config.ini, Proportions, back_op_analyze</v>
+      </c>
+      <c r="L30" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>abs_back_op_analyze := find_pos(back_op_analyze)</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="14"/>
+        <v>click_abs_back_op_analyze := Func("one_click").Bind(abs_back_op_analyze, , if_pos_res)</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="15"/>
+        <v>Hotkey, %k_op_backs%%k_op_analyze%, % click_abs_back_op_analyze</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31">
+        <v>400</v>
+      </c>
+      <c r="G31">
+        <v>440</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>0.73329999999999995</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="2"/>
         <v>sys_resume=0.5,0.7333</v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="K31" s="2" t="str">
         <f t="shared" si="3"/>
         <v>IniRead, sys_resume, .\config.ini, Proportions, sys_resume</v>
       </c>
-      <c r="L30" s="2" t="str">
+      <c r="L31" s="2" t="str">
         <f t="shared" si="4"/>
         <v>abs_sys_resume := find_pos(sys_resume)</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N31" t="s">
         <v>20</v>
       </c>
-      <c r="O30" t="str">
-        <f t="shared" si="11"/>
+      <c r="O31" t="str">
+        <f t="shared" si="14"/>
         <v>click_abs_sys_resume := Func("one_click").Bind(abs_sys_resume, , if_pos_res)</v>
       </c>
-      <c r="P30" t="str">
-        <f t="shared" si="12"/>
+      <c r="P31" t="str">
+        <f t="shared" si="15"/>
         <v>Hotkey, %k_op_backs%%k_op_system%, % click_abs_sys_resume</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>93</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>94</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>552</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>490</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="4">
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="4">
         <f t="shared" si="1"/>
         <v>0.81669999999999998</v>
       </c>
-      <c r="J31" s="4" t="str">
+      <c r="J32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>back_op_characters=0.69,0.8167</v>
       </c>
-      <c r="K31" s="5" t="str">
+      <c r="K32" s="5" t="str">
         <f t="shared" si="3"/>
         <v>IniRead, back_op_characters, .\config.ini, Proportions, back_op_characters</v>
       </c>
-      <c r="L31" s="5" t="str">
+      <c r="L32" s="5" t="str">
         <f t="shared" si="4"/>
         <v>abs_back_op_characters := find_pos(back_op_characters)</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N32" t="s">
         <v>23</v>
       </c>
-      <c r="O31" t="str">
-        <f t="shared" si="11"/>
+      <c r="O32" t="str">
+        <f t="shared" si="14"/>
         <v>click_abs_back_op_characters := Func("one_click").Bind(abs_back_op_characters, , if_pos_res)</v>
       </c>
-      <c r="P31" t="str">
-        <f t="shared" si="12"/>
+      <c r="P32" t="str">
+        <f t="shared" si="15"/>
         <v>Hotkey, %k_op_backs%%k_op_characters%, % click_abs_back_op_characters</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>96</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>97</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>442</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>441</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H33" s="4">
         <f t="shared" si="0"/>
         <v>0.55249999999999999</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I33" s="4">
         <f t="shared" si="1"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="J32" s="4" t="str">
+      <c r="J33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>back_op_buildings=0.5525,0.735</v>
       </c>
-      <c r="K32" s="5" t="str">
+      <c r="K33" s="5" t="str">
         <f t="shared" si="3"/>
         <v>IniRead, back_op_buildings, .\config.ini, Proportions, back_op_buildings</v>
       </c>
-      <c r="L32" s="5" t="str">
+      <c r="L33" s="5" t="str">
         <f t="shared" si="4"/>
         <v>abs_back_op_buildings := find_pos(back_op_buildings)</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N33" t="s">
         <v>26</v>
       </c>
-      <c r="O32" t="str">
-        <f t="shared" si="11"/>
+      <c r="O33" t="str">
+        <f t="shared" si="14"/>
         <v>click_abs_back_op_buildings := Func("one_click").Bind(abs_back_op_buildings, , if_pos_res)</v>
       </c>
-      <c r="P32" t="str">
-        <f t="shared" si="12"/>
+      <c r="P33" t="str">
+        <f t="shared" si="15"/>
         <v>Hotkey, %k_op_backs%%k_op_buildings%, % click_abs_back_op_buildings</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
+    <row r="34" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="4">
         <v>400</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="4">
         <v>566</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="4">
         <f t="shared" si="1"/>
         <v>0.94330000000000003</v>
       </c>
-      <c r="J33" s="4" t="str">
+      <c r="J34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>back_op_market=0.5,0.9433</v>
       </c>
-      <c r="K33" s="5" t="str">
+      <c r="K34" s="5" t="str">
         <f t="shared" si="3"/>
         <v>IniRead, back_op_market, .\config.ini, Proportions, back_op_market</v>
       </c>
-      <c r="L33" s="5" t="str">
+      <c r="L34" s="5" t="str">
         <f t="shared" si="4"/>
         <v>abs_back_op_market := find_pos(back_op_market)</v>
       </c>
-      <c r="M33" s="6"/>
-      <c r="N33" t="s">
-        <v>29</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="11"/>
-        <v>click_abs_back_op_market := Func("one_click").Bind(abs_back_op_market, , if_pos_res)</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="12"/>
-        <v>Hotkey, %k_op_backs%%k_op_market%, % click_abs_back_op_market</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="4">
-        <v>485</v>
-      </c>
-      <c r="G34" s="4">
-        <v>522</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="0"/>
-        <v>0.60629999999999995</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" si="1"/>
-        <v>0.87</v>
-      </c>
-      <c r="J34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>back_op_move=0.6063,0.87</v>
-      </c>
-      <c r="K34" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>IniRead, back_op_move, .\config.ini, Proportions, back_op_move</v>
-      </c>
-      <c r="L34" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>abs_back_op_move := find_pos(back_op_move)</v>
-      </c>
       <c r="M34" s="6"/>
       <c r="N34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="11"/>
-        <v>click_abs_back_op_move := Func("one_click").Bind(abs_back_op_move, , if_pos_res)</v>
+        <f t="shared" si="14"/>
+        <v>click_abs_back_op_market := Func("one_click").Bind(abs_back_op_market, , if_pos_res)</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="12"/>
-        <v>Hotkey, %k_op_backs%%k_op_move%, % click_abs_back_op_move</v>
+        <f t="shared" si="15"/>
+        <v>Hotkey, %k_op_backs%%k_op_market%, % click_abs_back_op_market</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F35" s="4">
         <v>485</v>
@@ -2725,38 +2739,38 @@
       </c>
       <c r="J35" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>back_op_attack=0.6063,0.87</v>
+        <v>back_op_move=0.6063,0.87</v>
       </c>
       <c r="K35" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>IniRead, back_op_attack, .\config.ini, Proportions, back_op_attack</v>
+        <v>IniRead, back_op_move, .\config.ini, Proportions, back_op_move</v>
       </c>
       <c r="L35" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>abs_back_op_attack := find_pos(back_op_attack)</v>
+        <v>abs_back_op_move := find_pos(back_op_move)</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="11"/>
-        <v>click_abs_back_op_attack := Func("one_click").Bind(abs_back_op_attack, , if_pos_res)</v>
+        <f t="shared" si="14"/>
+        <v>click_abs_back_op_move := Func("one_click").Bind(abs_back_op_move, , if_pos_res)</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="12"/>
-        <v>Hotkey, %k_op_backs%%k_op_attack%, % click_abs_back_op_attack</v>
+        <f t="shared" si="15"/>
+        <v>Hotkey, %k_op_backs%%k_op_move%, % click_abs_back_op_move</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F36" s="4">
         <v>485</v>
@@ -2774,38 +2788,38 @@
       </c>
       <c r="J36" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>back_op_scout=0.6063,0.87</v>
+        <v>back_op_attack=0.6063,0.87</v>
       </c>
       <c r="K36" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>IniRead, back_op_scout, .\config.ini, Proportions, back_op_scout</v>
+        <v>IniRead, back_op_attack, .\config.ini, Proportions, back_op_attack</v>
       </c>
       <c r="L36" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>abs_back_op_scout := find_pos(back_op_scout)</v>
+        <v>abs_back_op_attack := find_pos(back_op_attack)</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="11"/>
-        <v>click_abs_back_op_scout := Func("one_click").Bind(abs_back_op_scout, , if_pos_res)</v>
+        <f t="shared" si="14"/>
+        <v>click_abs_back_op_attack := Func("one_click").Bind(abs_back_op_attack, , if_pos_res)</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="12"/>
-        <v>Hotkey, %k_op_backs%%k_op_scout%, % click_abs_back_op_scout</v>
+        <f t="shared" si="15"/>
+        <v>Hotkey, %k_op_backs%%k_op_attack%, % click_abs_back_op_attack</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F37" s="4">
         <v>485</v>
@@ -2823,93 +2837,93 @@
       </c>
       <c r="J37" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>back_op_negotiate=0.6063,0.87</v>
+        <v>back_op_scout=0.6063,0.87</v>
       </c>
       <c r="K37" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>IniRead, back_op_negotiate, .\config.ini, Proportions, back_op_negotiate</v>
+        <v>IniRead, back_op_scout, .\config.ini, Proportions, back_op_scout</v>
       </c>
       <c r="L37" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>abs_back_op_negotiate := find_pos(back_op_negotiate)</v>
+        <v>abs_back_op_scout := find_pos(back_op_scout)</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="11"/>
-        <v>click_abs_back_op_negotiate := Func("one_click").Bind(abs_back_op_negotiate, , if_pos_res)</v>
+        <f t="shared" si="14"/>
+        <v>click_abs_back_op_scout := Func("one_click").Bind(abs_back_op_scout, , if_pos_res)</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="12"/>
-        <v>Hotkey, %k_op_backs%%k_op_negotiate%, % click_abs_back_op_negotiate</v>
+        <f t="shared" si="15"/>
+        <v>Hotkey, %k_op_backs%%k_op_scout%, % click_abs_back_op_scout</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F38" s="4">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G38" s="4">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.60629999999999995</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" si="1"/>
-        <v>0.84670000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="J38" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>back_op_info=0.5,0.8467</v>
+        <v>back_op_negotiate=0.6063,0.87</v>
       </c>
       <c r="K38" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>IniRead, back_op_info, .\config.ini, Proportions, back_op_info</v>
+        <v>IniRead, back_op_negotiate, .\config.ini, Proportions, back_op_negotiate</v>
       </c>
       <c r="L38" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>abs_back_op_info := find_pos(back_op_info)</v>
+        <v>abs_back_op_negotiate := find_pos(back_op_negotiate)</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="11"/>
-        <v>click_abs_back_op_info := Func("one_click").Bind(abs_back_op_info, , if_pos_res)</v>
+        <f t="shared" si="14"/>
+        <v>click_abs_back_op_negotiate := Func("one_click").Bind(abs_back_op_negotiate, , if_pos_res)</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="12"/>
-        <v>Hotkey, %k_op_backs%%k_op_info%, % click_abs_back_op_info</v>
+        <f t="shared" si="15"/>
+        <v>Hotkey, %k_op_backs%%k_op_negotiate%, % click_abs_back_op_negotiate</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F39" s="4">
         <v>400</v>
       </c>
       <c r="G39" s="4">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
@@ -2917,127 +2931,142 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="1"/>
-        <v>0.94330000000000003</v>
+        <v>0.84670000000000001</v>
       </c>
       <c r="J39" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>back_op_assign=0.5,0.9433</v>
+        <v>back_op_info=0.5,0.8467</v>
       </c>
       <c r="K39" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>IniRead, back_op_assign, .\config.ini, Proportions, back_op_assign</v>
+        <v>IniRead, back_op_info, .\config.ini, Proportions, back_op_info</v>
       </c>
       <c r="L39" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>abs_back_op_assign := find_pos(back_op_assign)</v>
+        <v>abs_back_op_info := find_pos(back_op_info)</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="11"/>
-        <v>click_abs_back_op_assign := Func("one_click").Bind(abs_back_op_assign, , if_pos_res)</v>
+        <f t="shared" si="14"/>
+        <v>click_abs_back_op_info := Func("one_click").Bind(abs_back_op_info, , if_pos_res)</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="12"/>
-        <v>Hotkey, %k_op_backs%%k_op_assign%, % click_abs_back_op_assign</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40">
-        <v>434</v>
-      </c>
-      <c r="G40">
-        <v>406</v>
+        <f t="shared" si="15"/>
+        <v>Hotkey, %k_op_backs%%k_op_info%, % click_abs_back_op_info</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="4">
+        <v>400</v>
+      </c>
+      <c r="G40" s="4">
+        <v>566</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="0"/>
-        <v>0.54249999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" si="1"/>
-        <v>0.67669999999999997</v>
+        <v>0.94330000000000003</v>
       </c>
       <c r="J40" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>back_op_incident=0.5425,0.6767</v>
+        <v>back_op_assign=0.5,0.9433</v>
       </c>
       <c r="K40" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>IniRead, back_op_incident, .\config.ini, Proportions, back_op_incident</v>
+        <v>IniRead, back_op_assign, .\config.ini, Proportions, back_op_assign</v>
       </c>
       <c r="L40" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>abs_back_op_incident := find_pos(back_op_incident)</v>
-      </c>
+        <v>abs_back_op_assign := find_pos(back_op_assign)</v>
+      </c>
+      <c r="M40" s="6"/>
       <c r="N40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="11"/>
-        <v>click_abs_back_op_incident := Func("one_click").Bind(abs_back_op_incident, , if_pos_res)</v>
+        <f t="shared" si="14"/>
+        <v>click_abs_back_op_assign := Func("one_click").Bind(abs_back_op_assign, , if_pos_res)</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="12"/>
-        <v>Hotkey, %k_op_backs%%k_op_incident%, % click_abs_back_op_incident</v>
+        <f t="shared" si="15"/>
+        <v>Hotkey, %k_op_backs%%k_op_assign%, % click_abs_back_op_assign</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41">
+        <v>434</v>
+      </c>
+      <c r="G41">
+        <v>406</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="1"/>
+        <v>0.67669999999999997</v>
+      </c>
+      <c r="J41" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>back_op_incident=0.5425,0.6767</v>
+      </c>
+      <c r="K41" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>IniRead, back_op_incident, .\config.ini, Proportions, back_op_incident</v>
+      </c>
+      <c r="L41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>abs_back_op_incident := find_pos(back_op_incident)</v>
+      </c>
+      <c r="N41" t="s">
+        <v>50</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="14"/>
+        <v>click_abs_back_op_incident := Func("one_click").Bind(abs_back_op_incident, , if_pos_res)</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="15"/>
+        <v>Hotkey, %k_op_backs%%k_op_incident%, % click_abs_back_op_incident</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>123</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>400</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>476</v>
-      </c>
-      <c r="H41" s="4">
-        <f>ROUND(F41/800,4)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="4">
-        <f>ROUND(G41/600,4)</f>
-        <v>0.79330000000000001</v>
-      </c>
-      <c r="J41" s="4" t="str">
-        <f>D41&amp;"="&amp;H41&amp;","&amp;I41</f>
-        <v>sub_back_building=0.5,0.7933</v>
-      </c>
-      <c r="K41" s="5" t="str">
-        <f>"IniRead, "&amp;D41&amp;", .\config.ini, Proportions, "&amp;D41</f>
-        <v>IniRead, sub_back_building, .\config.ini, Proportions, sub_back_building</v>
-      </c>
-      <c r="L41" s="5" t="str">
-        <f>"abs_"&amp;D41&amp;" := find_pos("&amp;D41&amp;")"</f>
-        <v>abs_sub_back_building := find_pos(sub_back_building)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="4">
-        <v>400</v>
-      </c>
-      <c r="G42" s="4">
-        <v>508</v>
       </c>
       <c r="H42" s="4">
         <f>ROUND(F42/800,4)</f>
@@ -3045,469 +3074,602 @@
       </c>
       <c r="I42" s="4">
         <f>ROUND(G42/600,4)</f>
-        <v>0.84670000000000001</v>
+        <v>0.79330000000000001</v>
       </c>
       <c r="J42" s="4" t="str">
         <f>D42&amp;"="&amp;H42&amp;","&amp;I42</f>
+        <v>sub_back_building=0.5,0.7933</v>
+      </c>
+      <c r="K42" s="5" t="str">
+        <f t="shared" ref="K42:K56" si="16">"IniRead, "&amp;D42&amp;", .\config.ini, Proportions, "&amp;D42</f>
+        <v>IniRead, sub_back_building, .\config.ini, Proportions, sub_back_building</v>
+      </c>
+      <c r="L42" s="5" t="str">
+        <f t="shared" ref="L42:L56" si="17">"abs_"&amp;D42&amp;" := find_pos("&amp;D42&amp;")"</f>
+        <v>abs_sub_back_building := find_pos(sub_back_building)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="4">
+        <v>400</v>
+      </c>
+      <c r="G43" s="4">
+        <v>508</v>
+      </c>
+      <c r="H43" s="4">
+        <f>ROUND(F43/800,4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="4">
+        <f>ROUND(G43/600,4)</f>
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="J43" s="4" t="str">
+        <f>D43&amp;"="&amp;H43&amp;","&amp;I43</f>
         <v>sub_back_fruit=0.5,0.8467</v>
       </c>
-      <c r="K42" s="5" t="str">
-        <f>"IniRead, "&amp;D42&amp;", .\config.ini, Proportions, "&amp;D42</f>
+      <c r="K43" s="5" t="str">
+        <f t="shared" si="16"/>
         <v>IniRead, sub_back_fruit, .\config.ini, Proportions, sub_back_fruit</v>
       </c>
-      <c r="L42" s="5" t="str">
-        <f>"abs_"&amp;D42&amp;" := find_pos("&amp;D42&amp;")"</f>
+      <c r="L43" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>abs_sub_back_fruit := find_pos(sub_back_fruit)</v>
       </c>
-      <c r="M42" s="6"/>
-    </row>
-    <row r="43" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B44" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D44" t="s">
         <v>163</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44">
         <v>62</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G44">
         <v>299</v>
       </c>
-      <c r="H43" s="12">
-        <f t="shared" ref="H43:H48" si="13">ROUND(F43/800,4)</f>
+      <c r="H44">
+        <f t="shared" ref="H44:H49" si="18">ROUND(F44/800,4)</f>
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="I43" s="12">
-        <f t="shared" ref="I43:I48" si="14">ROUND(G43/600,4)</f>
+      <c r="I44">
+        <f t="shared" ref="I44:I49" si="19">ROUND(G44/600,4)</f>
         <v>0.49830000000000002</v>
       </c>
-      <c r="J43" s="12" t="str">
-        <f t="shared" ref="J43:J48" si="15">D43&amp;"="&amp;H43&amp;","&amp;I43</f>
+      <c r="J44" t="str">
+        <f t="shared" ref="J44:J49" si="20">D44&amp;"="&amp;H44&amp;","&amp;I44</f>
         <v>region_s_equipment=0.0775,0.4983</v>
       </c>
-      <c r="K43" s="13" t="str">
-        <f>"IniRead, "&amp;D43&amp;", .\config.ini, Proportions, "&amp;D43</f>
+      <c r="K44" t="str">
+        <f t="shared" si="16"/>
         <v>IniRead, region_s_equipment, .\config.ini, Proportions, region_s_equipment</v>
       </c>
-      <c r="L43" s="13" t="str">
-        <f>"abs_"&amp;D43&amp;" := find_pos("&amp;D43&amp;")"</f>
+      <c r="L44" t="str">
+        <f t="shared" si="17"/>
         <v>abs_region_s_equipment := find_pos(region_s_equipment)</v>
       </c>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D44" s="9" t="s">
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D45" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>100</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>463</v>
       </c>
-      <c r="H44" s="4">
-        <f t="shared" si="13"/>
+      <c r="H45" s="4">
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="I44" s="4">
-        <f t="shared" si="14"/>
+      <c r="I45" s="4">
+        <f t="shared" si="19"/>
         <v>0.77170000000000005</v>
       </c>
-      <c r="J44" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="J45" s="4" t="str">
+        <f t="shared" si="20"/>
         <v>region_e_equipment=0.125,0.7717</v>
       </c>
-      <c r="K44" s="10" t="str">
-        <f>"IniRead, "&amp;D44&amp;", .\config.ini, Proportions, "&amp;D44</f>
+      <c r="K45" s="10" t="str">
+        <f t="shared" si="16"/>
         <v>IniRead, region_e_equipment, .\config.ini, Proportions, region_e_equipment</v>
       </c>
-      <c r="L44" s="10" t="str">
-        <f>"abs_"&amp;D44&amp;" := find_pos("&amp;D44&amp;")"</f>
+      <c r="L45" s="10" t="str">
+        <f t="shared" si="17"/>
         <v>abs_region_e_equipment := find_pos(region_e_equipment)</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>115</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>299</v>
       </c>
-      <c r="H45" s="4">
-        <f t="shared" si="13"/>
+      <c r="H46" s="4">
+        <f t="shared" si="18"/>
         <v>0.14380000000000001</v>
       </c>
-      <c r="I45" s="4">
-        <f t="shared" si="14"/>
+      <c r="I46" s="4">
+        <f t="shared" si="19"/>
         <v>0.49830000000000002</v>
       </c>
-      <c r="J45" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="J46" s="4" t="str">
+        <f t="shared" si="20"/>
         <v>region_s_inventory=0.1438,0.4983</v>
       </c>
-      <c r="K45" s="10" t="str">
-        <f>"IniRead, "&amp;D45&amp;", .\config.ini, Proportions, "&amp;D45</f>
+      <c r="K46" s="10" t="str">
+        <f t="shared" si="16"/>
         <v>IniRead, region_s_inventory, .\config.ini, Proportions, region_s_inventory</v>
       </c>
-      <c r="L45" s="10" t="str">
-        <f>"abs_"&amp;D45&amp;" := find_pos("&amp;D45&amp;")"</f>
+      <c r="L46" s="10" t="str">
+        <f t="shared" si="17"/>
         <v>abs_region_s_inventory := find_pos(region_s_inventory)</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="9" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D47" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>195</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>461</v>
       </c>
-      <c r="H46" s="4">
-        <f t="shared" si="13"/>
+      <c r="H47" s="4">
+        <f t="shared" si="18"/>
         <v>0.24379999999999999</v>
       </c>
-      <c r="I46" s="4">
-        <f t="shared" si="14"/>
+      <c r="I47" s="4">
+        <f t="shared" si="19"/>
         <v>0.76829999999999998</v>
       </c>
-      <c r="J46" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="J47" s="4" t="str">
+        <f t="shared" si="20"/>
         <v>region_e_inventory=0.2438,0.7683</v>
       </c>
-      <c r="K46" s="10" t="str">
-        <f>"IniRead, "&amp;D46&amp;", .\config.ini, Proportions, "&amp;D46</f>
+      <c r="K47" s="10" t="str">
+        <f t="shared" si="16"/>
         <v>IniRead, region_e_inventory, .\config.ini, Proportions, region_e_inventory</v>
       </c>
-      <c r="L46" s="10" t="str">
-        <f>"abs_"&amp;D46&amp;" := find_pos("&amp;D46&amp;")"</f>
+      <c r="L47" s="10" t="str">
+        <f t="shared" si="17"/>
         <v>abs_region_e_inventory := find_pos(region_e_inventory)</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>642</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>196</v>
       </c>
-      <c r="H47" s="4">
-        <f t="shared" si="13"/>
+      <c r="H48" s="4">
+        <f t="shared" si="18"/>
         <v>0.80249999999999999</v>
       </c>
-      <c r="I47" s="4">
-        <f t="shared" si="14"/>
+      <c r="I48" s="4">
+        <f t="shared" si="19"/>
         <v>0.32669999999999999</v>
       </c>
-      <c r="J47" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="J48" s="4" t="str">
+        <f t="shared" si="20"/>
         <v>region_s_storage=0.8025,0.3267</v>
       </c>
-      <c r="K47" s="10" t="str">
-        <f>"IniRead, "&amp;D47&amp;", .\config.ini, Proportions, "&amp;D47</f>
+      <c r="K48" s="10" t="str">
+        <f t="shared" si="16"/>
         <v>IniRead, region_s_storage, .\config.ini, Proportions, region_s_storage</v>
       </c>
-      <c r="L47" s="10" t="str">
-        <f>"abs_"&amp;D47&amp;" := find_pos("&amp;D47&amp;")"</f>
+      <c r="L48" s="10" t="str">
+        <f t="shared" si="17"/>
         <v>abs_region_s_storage := find_pos(region_s_storage)</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D48" s="9" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D49" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>763</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>484</v>
       </c>
-      <c r="H48" s="4">
-        <f t="shared" si="13"/>
+      <c r="H49" s="4">
+        <f t="shared" si="18"/>
         <v>0.95379999999999998</v>
       </c>
-      <c r="I48" s="4">
-        <f t="shared" si="14"/>
+      <c r="I49" s="4">
+        <f t="shared" si="19"/>
         <v>0.80669999999999997</v>
       </c>
-      <c r="J48" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="J49" s="4" t="str">
+        <f t="shared" si="20"/>
         <v>region_e_storage=0.9538,0.8067</v>
       </c>
-      <c r="K48" s="10" t="str">
-        <f>"IniRead, "&amp;D48&amp;", .\config.ini, Proportions, "&amp;D48</f>
+      <c r="K49" s="10" t="str">
+        <f t="shared" si="16"/>
         <v>IniRead, region_e_storage, .\config.ini, Proportions, region_e_storage</v>
       </c>
-      <c r="L48" s="10" t="str">
-        <f>"abs_"&amp;D48&amp;" := find_pos("&amp;D48&amp;")"</f>
+      <c r="L49" s="10" t="str">
+        <f t="shared" si="17"/>
         <v>abs_region_e_storage := find_pos(region_e_storage)</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="11">
+        <v>632</v>
+      </c>
+      <c r="G50" s="11">
+        <v>338</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" ref="H50:H51" si="21">ROUND(F50/800,4)</f>
+        <v>0.79</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" ref="I50:I51" si="22">ROUND(G50/600,4)</f>
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="J50" s="4" t="str">
+        <f t="shared" ref="J50:J51" si="23">D50&amp;"="&amp;H50&amp;","&amp;I50</f>
+        <v>region_s_combat_i=0.79,0.5633</v>
+      </c>
+      <c r="K50" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>IniRead, region_s_combat_i, .\config.ini, Proportions, region_s_combat_i</v>
+      </c>
+      <c r="L50" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>abs_region_s_combat_i := find_pos(region_s_combat_i)</v>
+      </c>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="11">
+        <v>793</v>
+      </c>
+      <c r="G51" s="11">
+        <v>414</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="21"/>
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" si="22"/>
+        <v>0.69</v>
+      </c>
+      <c r="J51" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>region_e_combat_i=0.9913,0.69</v>
+      </c>
+      <c r="K51" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>IniRead, region_e_combat_i, .\config.ini, Proportions, region_e_combat_i</v>
+      </c>
+      <c r="L51" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>abs_region_e_combat_i := find_pos(region_e_combat_i)</v>
+      </c>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>155</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D52" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F49">
+      <c r="F52">
         <v>135</v>
       </c>
-      <c r="G49">
+      <c r="G52">
         <v>206</v>
       </c>
-      <c r="H49" s="4">
-        <f t="shared" ref="H49:H55" si="16">ROUND(F49/800,4)</f>
+      <c r="H52" s="4">
+        <f t="shared" ref="H52:H58" si="24">ROUND(F52/800,4)</f>
         <v>0.16880000000000001</v>
       </c>
-      <c r="I49" s="4">
-        <f t="shared" ref="I49:I55" si="17">ROUND(G49/600,4)</f>
+      <c r="I52" s="4">
+        <f t="shared" ref="I52:I58" si="25">ROUND(G52/600,4)</f>
         <v>0.34329999999999999</v>
       </c>
-      <c r="J49" s="4" t="str">
-        <f t="shared" ref="J49:J55" si="18">D49&amp;"="&amp;H49&amp;","&amp;I49</f>
+      <c r="J52" s="4" t="str">
+        <f t="shared" ref="J52:J58" si="26">D52&amp;"="&amp;H52&amp;","&amp;I52</f>
         <v>item_portrait=0.1688,0.3433</v>
       </c>
-      <c r="K49" s="10" t="str">
-        <f>"IniRead, "&amp;D49&amp;", .\config.ini, Proportions, "&amp;D49</f>
+      <c r="K52" s="10" t="str">
+        <f t="shared" si="16"/>
         <v>IniRead, item_portrait, .\config.ini, Proportions, item_portrait</v>
       </c>
-      <c r="L49" s="10" t="str">
-        <f>"abs_"&amp;D49&amp;" := find_pos("&amp;D49&amp;")"</f>
+      <c r="L52" s="10" t="str">
+        <f t="shared" si="17"/>
         <v>abs_item_portrait := find_pos(item_portrait)</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F50">
+      <c r="F53">
         <v>135</v>
       </c>
-      <c r="G50">
+      <c r="G53">
         <v>323</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H53" s="4">
+        <f t="shared" si="24"/>
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="I53" s="4">
+        <f t="shared" si="25"/>
+        <v>0.5383</v>
+      </c>
+      <c r="J53" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>item_inv_1=0.1688,0.5383</v>
+      </c>
+      <c r="K53" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>0.16880000000000001</v>
-      </c>
-      <c r="I50" s="4">
+        <v>IniRead, item_inv_1, .\config.ini, Proportions, item_inv_1</v>
+      </c>
+      <c r="L53" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.5383</v>
-      </c>
-      <c r="J50" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>item_inv_1=0.1688,0.5383</v>
-      </c>
-      <c r="K50" s="10" t="str">
-        <f>"IniRead, "&amp;D50&amp;", .\config.ini, Proportions, "&amp;D50</f>
-        <v>IniRead, item_inv_1, .\config.ini, Proportions, item_inv_1</v>
-      </c>
-      <c r="L50" s="10" t="str">
-        <f>"abs_"&amp;D50&amp;" := find_pos("&amp;D50&amp;")"</f>
         <v>abs_item_inv_1 := find_pos(item_inv_1)</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F51">
+      <c r="F54">
         <v>671</v>
       </c>
-      <c r="G51">
+      <c r="G54">
         <v>219</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H54" s="4">
+        <f t="shared" si="24"/>
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="I54" s="4">
+        <f t="shared" si="25"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="J54" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>item_storage_1=0.8388,0.365</v>
+      </c>
+      <c r="K54" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>0.83879999999999999</v>
-      </c>
-      <c r="I51" s="4">
+        <v>IniRead, item_storage_1, .\config.ini, Proportions, item_storage_1</v>
+      </c>
+      <c r="L54" s="10" t="str">
         <f t="shared" si="17"/>
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="J51" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>item_storage_1=0.8388,0.365</v>
-      </c>
-      <c r="K51" s="10" t="str">
-        <f>"IniRead, "&amp;D51&amp;", .\config.ini, Proportions, "&amp;D51</f>
-        <v>IniRead, item_storage_1, .\config.ini, Proportions, item_storage_1</v>
-      </c>
-      <c r="L51" s="10" t="str">
-        <f>"abs_"&amp;D51&amp;" := find_pos("&amp;D51&amp;")"</f>
         <v>abs_item_storage_1 := find_pos(item_storage_1)</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="F52">
-        <v>80</v>
-      </c>
-      <c r="G52">
-        <v>320</v>
-      </c>
-      <c r="H52" s="4">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="I52" s="4">
-        <f t="shared" si="17"/>
-        <v>0.5333</v>
-      </c>
-      <c r="J52" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>item_equipment_1=0.1,0.5333</v>
-      </c>
-      <c r="K52" s="10" t="str">
-        <f>"IniRead, "&amp;D52&amp;", .\config.ini, Proportions, "&amp;D52</f>
-        <v>IniRead, item_equipment_1, .\config.ini, Proportions, item_equipment_1</v>
-      </c>
-      <c r="L52" s="10" t="str">
-        <f>"abs_"&amp;D52&amp;" := find_pos("&amp;D52&amp;")"</f>
-        <v>abs_item_equipment_1 := find_pos(item_equipment_1)</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53">
-        <v>80</v>
-      </c>
-      <c r="G53">
-        <v>360</v>
-      </c>
-      <c r="H53" s="4">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="I53" s="4">
-        <f t="shared" si="17"/>
-        <v>0.6</v>
-      </c>
-      <c r="J53" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>item_equipment_2=0.1,0.6</v>
-      </c>
-      <c r="K53" s="10" t="str">
-        <f>"IniRead, "&amp;D53&amp;", .\config.ini, Proportions, "&amp;D53</f>
-        <v>IniRead, item_equipment_2, .\config.ini, Proportions, item_equipment_2</v>
-      </c>
-      <c r="L53" s="10" t="str">
-        <f>"abs_"&amp;D53&amp;" := find_pos("&amp;D53&amp;")"</f>
-        <v>abs_item_equipment_2 := find_pos(item_equipment_2)</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54">
-        <v>80</v>
-      </c>
-      <c r="G54">
-        <v>400</v>
-      </c>
-      <c r="H54" s="4">
-        <f t="shared" si="16"/>
-        <v>0.1</v>
-      </c>
-      <c r="I54" s="4">
-        <f t="shared" si="17"/>
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="J54" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>item_equipment_3=0.1,0.6667</v>
-      </c>
-      <c r="K54" s="10" t="str">
-        <f t="shared" ref="K54:K55" si="19">"IniRead, "&amp;D54&amp;", .\config.ini, Proportions, "&amp;D54</f>
-        <v>IniRead, item_equipment_3, .\config.ini, Proportions, item_equipment_3</v>
-      </c>
-      <c r="L54" s="10" t="str">
-        <f t="shared" ref="L54:L56" si="20">"abs_"&amp;D54&amp;" := find_pos("&amp;D54&amp;")"</f>
-        <v>abs_item_equipment_3 := find_pos(item_equipment_3)</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="F55">
         <v>80</v>
       </c>
       <c r="G55">
+        <v>320</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="24"/>
+        <v>0.1</v>
+      </c>
+      <c r="I55" s="4">
+        <f t="shared" si="25"/>
+        <v>0.5333</v>
+      </c>
+      <c r="J55" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>item_equipment_1=0.1,0.5333</v>
+      </c>
+      <c r="K55" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>IniRead, item_equipment_1, .\config.ini, Proportions, item_equipment_1</v>
+      </c>
+      <c r="L55" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>abs_item_equipment_1 := find_pos(item_equipment_1)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56">
+        <v>80</v>
+      </c>
+      <c r="G56">
+        <v>360</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="24"/>
+        <v>0.1</v>
+      </c>
+      <c r="I56" s="4">
+        <f t="shared" si="25"/>
+        <v>0.6</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>item_equipment_2=0.1,0.6</v>
+      </c>
+      <c r="K56" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>IniRead, item_equipment_2, .\config.ini, Proportions, item_equipment_2</v>
+      </c>
+      <c r="L56" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>abs_item_equipment_2 := find_pos(item_equipment_2)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>400</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="24"/>
+        <v>0.1</v>
+      </c>
+      <c r="I57" s="4">
+        <f t="shared" si="25"/>
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J57" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>item_equipment_3=0.1,0.6667</v>
+      </c>
+      <c r="K57" s="10" t="str">
+        <f t="shared" ref="K57:K59" si="27">"IniRead, "&amp;D57&amp;", .\config.ini, Proportions, "&amp;D57</f>
+        <v>IniRead, item_equipment_3, .\config.ini, Proportions, item_equipment_3</v>
+      </c>
+      <c r="L57" s="10" t="str">
+        <f t="shared" ref="L57:L59" si="28">"abs_"&amp;D57&amp;" := find_pos("&amp;D57&amp;")"</f>
+        <v>abs_item_equipment_3 := find_pos(item_equipment_3)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58">
+        <v>80</v>
+      </c>
+      <c r="G58">
         <v>440</v>
       </c>
-      <c r="H55" s="4">
-        <f t="shared" si="16"/>
+      <c r="H58" s="4">
+        <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
-      <c r="I55" s="4">
-        <f t="shared" si="17"/>
+      <c r="I58" s="4">
+        <f t="shared" si="25"/>
         <v>0.73329999999999995</v>
       </c>
-      <c r="J55" s="4" t="str">
-        <f t="shared" si="18"/>
+      <c r="J58" s="4" t="str">
+        <f t="shared" si="26"/>
         <v>item_equipment_4=0.1,0.7333</v>
       </c>
-      <c r="K55" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="K58" s="10" t="str">
+        <f t="shared" si="27"/>
         <v>IniRead, item_equipment_4, .\config.ini, Proportions, item_equipment_4</v>
       </c>
-      <c r="L55" s="10" t="str">
-        <f t="shared" si="20"/>
+      <c r="L58" s="10" t="str">
+        <f t="shared" si="28"/>
         <v>abs_item_equipment_4 := find_pos(item_equipment_4)</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L56" s="10"/>
+    <row r="59" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="11">
+        <v>773</v>
+      </c>
+      <c r="G59" s="11">
+        <v>121</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" ref="H59" si="29">ROUND(F59/800,4)</f>
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="I59" s="4">
+        <f t="shared" ref="I59" si="30">ROUND(G59/600,4)</f>
+        <v>0.20169999999999999</v>
+      </c>
+      <c r="J59" s="4" t="str">
+        <f t="shared" ref="J59" si="31">D59&amp;"="&amp;H59&amp;","&amp;I59</f>
+        <v>item_combat_weapon=0.9663,0.2017</v>
+      </c>
+      <c r="K59" s="14" t="str">
+        <f t="shared" si="27"/>
+        <v>IniRead, item_combat_weapon, .\config.ini, Proportions, item_combat_weapon</v>
+      </c>
+      <c r="L59" s="14" t="str">
+        <f t="shared" si="28"/>
+        <v>abs_item_combat_weapon := find_pos(item_combat_weapon)</v>
+      </c>
+      <c r="M59" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -3737,7 +3899,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3757,7 +3919,7 @@
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/MK_Hotkeys_Project_Design.xlsx
+++ b/MK_Hotkeys_Project_Design.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="185">
   <si>
     <t>名称</t>
   </si>
@@ -583,6 +583,42 @@
   </si>
   <si>
     <t>item_combat_weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_pay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_pay_inc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_pay_dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_pay_ok</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -680,10 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1035,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3323,72 +3355,72 @@
         <v>abs_region_e_storage := find_pos(region_e_storage)</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="11" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50">
         <v>632</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50">
         <v>338</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50">
         <f t="shared" ref="H50:H51" si="21">ROUND(F50/800,4)</f>
         <v>0.79</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50">
         <f t="shared" ref="I50:I51" si="22">ROUND(G50/600,4)</f>
         <v>0.56330000000000002</v>
       </c>
-      <c r="J50" s="4" t="str">
+      <c r="J50" t="str">
         <f t="shared" ref="J50:J51" si="23">D50&amp;"="&amp;H50&amp;","&amp;I50</f>
         <v>region_s_combat_i=0.79,0.5633</v>
       </c>
-      <c r="K50" s="14" t="str">
+      <c r="K50" t="str">
         <f t="shared" si="16"/>
         <v>IniRead, region_s_combat_i, .\config.ini, Proportions, region_s_combat_i</v>
       </c>
-      <c r="L50" s="14" t="str">
+      <c r="L50" t="str">
         <f t="shared" si="17"/>
         <v>abs_region_s_combat_i := find_pos(region_s_combat_i)</v>
       </c>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="13" t="s">
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
         <v>171</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51">
         <v>793</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51">
         <v>414</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51">
         <f t="shared" si="21"/>
         <v>0.99129999999999996</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51">
         <f t="shared" si="22"/>
         <v>0.69</v>
       </c>
-      <c r="J51" s="4" t="str">
+      <c r="J51" t="str">
         <f t="shared" si="23"/>
         <v>region_e_combat_i=0.9913,0.69</v>
       </c>
-      <c r="K51" s="14" t="str">
+      <c r="K51" t="str">
         <f t="shared" si="16"/>
         <v>IniRead, region_e_combat_i, .\config.ini, Proportions, region_e_combat_i</v>
       </c>
-      <c r="L51" s="14" t="str">
+      <c r="L51" t="str">
         <f t="shared" si="17"/>
         <v>abs_region_e_combat_i := find_pos(region_e_combat_i)</v>
       </c>
-      <c r="M51" s="12"/>
+      <c r="M51"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -3397,7 +3429,7 @@
       <c r="B52" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" t="s">
         <v>156</v>
       </c>
       <c r="F52">
@@ -3406,32 +3438,33 @@
       <c r="G52">
         <v>206</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52">
         <f t="shared" ref="H52:H58" si="24">ROUND(F52/800,4)</f>
         <v>0.16880000000000001</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52">
         <f t="shared" ref="I52:I58" si="25">ROUND(G52/600,4)</f>
         <v>0.34329999999999999</v>
       </c>
-      <c r="J52" s="4" t="str">
+      <c r="J52" t="str">
         <f t="shared" ref="J52:J58" si="26">D52&amp;"="&amp;H52&amp;","&amp;I52</f>
         <v>item_portrait=0.1688,0.3433</v>
       </c>
-      <c r="K52" s="10" t="str">
+      <c r="K52" t="str">
         <f t="shared" si="16"/>
         <v>IniRead, item_portrait, .\config.ini, Proportions, item_portrait</v>
       </c>
-      <c r="L52" s="10" t="str">
+      <c r="L52" t="str">
         <f t="shared" si="17"/>
         <v>abs_item_portrait := find_pos(item_portrait)</v>
       </c>
+      <c r="M52"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" t="s">
         <v>157</v>
       </c>
       <c r="F53">
@@ -3440,32 +3473,33 @@
       <c r="G53">
         <v>323</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53">
         <f t="shared" si="24"/>
         <v>0.16880000000000001</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53">
         <f t="shared" si="25"/>
         <v>0.5383</v>
       </c>
-      <c r="J53" s="4" t="str">
+      <c r="J53" t="str">
         <f t="shared" si="26"/>
         <v>item_inv_1=0.1688,0.5383</v>
       </c>
-      <c r="K53" s="10" t="str">
+      <c r="K53" t="str">
         <f t="shared" si="16"/>
         <v>IniRead, item_inv_1, .\config.ini, Proportions, item_inv_1</v>
       </c>
-      <c r="L53" s="10" t="str">
+      <c r="L53" t="str">
         <f t="shared" si="17"/>
         <v>abs_item_inv_1 := find_pos(item_inv_1)</v>
       </c>
+      <c r="M53"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>150</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" t="s">
         <v>158</v>
       </c>
       <c r="F54">
@@ -3474,32 +3508,33 @@
       <c r="G54">
         <v>219</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54">
         <f t="shared" si="24"/>
         <v>0.83879999999999999</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54">
         <f t="shared" si="25"/>
         <v>0.36499999999999999</v>
       </c>
-      <c r="J54" s="4" t="str">
+      <c r="J54" t="str">
         <f t="shared" si="26"/>
         <v>item_storage_1=0.8388,0.365</v>
       </c>
-      <c r="K54" s="10" t="str">
+      <c r="K54" t="str">
         <f t="shared" si="16"/>
         <v>IniRead, item_storage_1, .\config.ini, Proportions, item_storage_1</v>
       </c>
-      <c r="L54" s="10" t="str">
+      <c r="L54" t="str">
         <f t="shared" si="17"/>
         <v>abs_item_storage_1 := find_pos(item_storage_1)</v>
       </c>
+      <c r="M54"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" t="s">
         <v>159</v>
       </c>
       <c r="F55">
@@ -3508,32 +3543,33 @@
       <c r="G55">
         <v>320</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55">
         <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55">
         <f t="shared" si="25"/>
         <v>0.5333</v>
       </c>
-      <c r="J55" s="4" t="str">
+      <c r="J55" t="str">
         <f t="shared" si="26"/>
         <v>item_equipment_1=0.1,0.5333</v>
       </c>
-      <c r="K55" s="10" t="str">
+      <c r="K55" t="str">
         <f t="shared" si="16"/>
         <v>IniRead, item_equipment_1, .\config.ini, Proportions, item_equipment_1</v>
       </c>
-      <c r="L55" s="10" t="str">
+      <c r="L55" t="str">
         <f t="shared" si="17"/>
         <v>abs_item_equipment_1 := find_pos(item_equipment_1)</v>
       </c>
+      <c r="M55"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" t="s">
         <v>160</v>
       </c>
       <c r="F56">
@@ -3542,32 +3578,33 @@
       <c r="G56">
         <v>360</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56">
         <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56">
         <f t="shared" si="25"/>
         <v>0.6</v>
       </c>
-      <c r="J56" s="4" t="str">
+      <c r="J56" t="str">
         <f t="shared" si="26"/>
         <v>item_equipment_2=0.1,0.6</v>
       </c>
-      <c r="K56" s="10" t="str">
+      <c r="K56" t="str">
         <f t="shared" si="16"/>
         <v>IniRead, item_equipment_2, .\config.ini, Proportions, item_equipment_2</v>
       </c>
-      <c r="L56" s="10" t="str">
+      <c r="L56" t="str">
         <f t="shared" si="17"/>
         <v>abs_item_equipment_2 := find_pos(item_equipment_2)</v>
       </c>
+      <c r="M56"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" t="s">
         <v>161</v>
       </c>
       <c r="F57">
@@ -3576,32 +3613,33 @@
       <c r="G57">
         <v>400</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57">
         <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57">
         <f t="shared" si="25"/>
         <v>0.66669999999999996</v>
       </c>
-      <c r="J57" s="4" t="str">
+      <c r="J57" t="str">
         <f t="shared" si="26"/>
         <v>item_equipment_3=0.1,0.6667</v>
       </c>
-      <c r="K57" s="10" t="str">
-        <f t="shared" ref="K57:K59" si="27">"IniRead, "&amp;D57&amp;", .\config.ini, Proportions, "&amp;D57</f>
+      <c r="K57" t="str">
+        <f t="shared" ref="K57:K60" si="27">"IniRead, "&amp;D57&amp;", .\config.ini, Proportions, "&amp;D57</f>
         <v>IniRead, item_equipment_3, .\config.ini, Proportions, item_equipment_3</v>
       </c>
-      <c r="L57" s="10" t="str">
-        <f t="shared" ref="L57:L59" si="28">"abs_"&amp;D57&amp;" := find_pos("&amp;D57&amp;")"</f>
+      <c r="L57" t="str">
+        <f t="shared" ref="L57:L60" si="28">"abs_"&amp;D57&amp;" := find_pos("&amp;D57&amp;")"</f>
         <v>abs_item_equipment_3 := find_pos(item_equipment_3)</v>
       </c>
+      <c r="M57"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>154</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" t="s">
         <v>162</v>
       </c>
       <c r="F58">
@@ -3610,61 +3648,228 @@
       <c r="G58">
         <v>440</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58">
         <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58">
         <f t="shared" si="25"/>
         <v>0.73329999999999995</v>
       </c>
-      <c r="J58" s="4" t="str">
+      <c r="J58" t="str">
         <f t="shared" si="26"/>
         <v>item_equipment_4=0.1,0.7333</v>
       </c>
-      <c r="K58" s="10" t="str">
+      <c r="K58" t="str">
         <f t="shared" si="27"/>
         <v>IniRead, item_equipment_4, .\config.ini, Proportions, item_equipment_4</v>
       </c>
-      <c r="L58" s="10" t="str">
+      <c r="L58" t="str">
         <f t="shared" si="28"/>
         <v>abs_item_equipment_4 := find_pos(item_equipment_4)</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="11" t="s">
+      <c r="M58"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" t="s">
         <v>175</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59">
         <v>773</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59">
         <v>121</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59">
         <f t="shared" ref="H59" si="29">ROUND(F59/800,4)</f>
         <v>0.96630000000000005</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59">
         <f t="shared" ref="I59" si="30">ROUND(G59/600,4)</f>
         <v>0.20169999999999999</v>
       </c>
-      <c r="J59" s="4" t="str">
+      <c r="J59" t="str">
         <f t="shared" ref="J59" si="31">D59&amp;"="&amp;H59&amp;","&amp;I59</f>
         <v>item_combat_weapon=0.9663,0.2017</v>
       </c>
-      <c r="K59" s="14" t="str">
+      <c r="K59" t="str">
         <f t="shared" si="27"/>
         <v>IniRead, item_combat_weapon, .\config.ini, Proportions, item_combat_weapon</v>
       </c>
-      <c r="L59" s="14" t="str">
+      <c r="L59" t="str">
         <f t="shared" si="28"/>
         <v>abs_item_combat_weapon := find_pos(item_combat_weapon)</v>
       </c>
-      <c r="M59" s="12"/>
+      <c r="M59"/>
+    </row>
+    <row r="60" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="11">
+        <v>214</v>
+      </c>
+      <c r="G60" s="11">
+        <v>238</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60:H64" si="32">ROUND(F60/800,4)</f>
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:I64" si="33">ROUND(G60/600,4)</f>
+        <v>0.3967</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" ref="J60:J64" si="34">D60&amp;"="&amp;H60&amp;","&amp;I60</f>
+        <v>char_pay=0.2675,0.3967</v>
+      </c>
+      <c r="K60" s="11" t="str">
+        <f t="shared" si="27"/>
+        <v>IniRead, char_pay, .\config.ini, Proportions, char_pay</v>
+      </c>
+      <c r="L60" s="11" t="str">
+        <f t="shared" si="28"/>
+        <v>abs_char_pay := find_pos(char_pay)</v>
+      </c>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="11">
+        <v>376</v>
+      </c>
+      <c r="G61" s="11">
+        <v>270</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="32"/>
+        <v>0.47</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="33"/>
+        <v>0.45</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="34"/>
+        <v>char_pay_inc=0.47,0.45</v>
+      </c>
+      <c r="K61" s="11" t="str">
+        <f t="shared" ref="K61:K64" si="35">"IniRead, "&amp;D61&amp;", .\config.ini, Proportions, "&amp;D61</f>
+        <v>IniRead, char_pay_inc, .\config.ini, Proportions, char_pay_inc</v>
+      </c>
+      <c r="L61" s="11" t="str">
+        <f t="shared" ref="L61:L64" si="36">"abs_"&amp;D61&amp;" := find_pos("&amp;D61&amp;")"</f>
+        <v>abs_char_pay_inc := find_pos(char_pay_inc)</v>
+      </c>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="62" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" s="11">
+        <v>312</v>
+      </c>
+      <c r="G62" s="11">
+        <v>270</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="32"/>
+        <v>0.39</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="33"/>
+        <v>0.45</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="34"/>
+        <v>char_pay_dec=0.39,0.45</v>
+      </c>
+      <c r="K62" s="11" t="str">
+        <f t="shared" si="35"/>
+        <v>IniRead, char_pay_dec, .\config.ini, Proportions, char_pay_dec</v>
+      </c>
+      <c r="L62" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v>abs_char_pay_dec := find_pos(char_pay_dec)</v>
+      </c>
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="11">
+        <v>314</v>
+      </c>
+      <c r="G63" s="11">
+        <v>350</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="32"/>
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="33"/>
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="34"/>
+        <v>char_pay_ok=0.3925,0.5833</v>
+      </c>
+      <c r="K63" s="11" t="str">
+        <f t="shared" si="35"/>
+        <v>IniRead, char_pay_ok, .\config.ini, Proportions, char_pay_ok</v>
+      </c>
+      <c r="L63" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v>abs_char_pay_ok := find_pos(char_pay_ok)</v>
+      </c>
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="34"/>
+        <v>=0,0</v>
+      </c>
+      <c r="K64" s="11" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">IniRead, , .\config.ini, Proportions, </v>
+      </c>
+      <c r="L64" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v>abs_ := find_pos()</v>
+      </c>
+      <c r="M64" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
